--- a/src/attributions/attributions_saliency_traj_79.xlsx
+++ b/src/attributions/attributions_saliency_traj_79.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001558613730594516</v>
+        <v>0.3058689832687378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001697653206065297</v>
+        <v>0.05003009736537933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02771022170782089</v>
+        <v>0.02761637419462204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005587536375969648</v>
+        <v>0.2373151183128357</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02441317215561867</v>
+        <v>0.1947989463806152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009485585615038872</v>
+        <v>0.3379333317279816</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003104005707427859</v>
+        <v>0.2231224179267883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005590109620243311</v>
+        <v>0.2124256938695908</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02468984760344028</v>
+        <v>0.4086758494377136</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004403169266879559</v>
+        <v>0.3815065622329712</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001754948403686285</v>
+        <v>0.1620949357748032</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02511022239923477</v>
+        <v>0.05838365107774734</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003256077412515879</v>
+        <v>0.2079458087682724</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0111539326608181</v>
+        <v>0.2082099616527557</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008171615190804005</v>
+        <v>0.1976491659879684</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004507771693170071</v>
+        <v>0.2556715607643127</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002333842217922211</v>
+        <v>0.05253306776285172</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02384056150913239</v>
+        <v>0.5473004579544067</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003492027055472136</v>
+        <v>0.004552721977233887</v>
       </c>
       <c r="T3" t="n">
-        <v>0.003193582873791456</v>
+        <v>0.0684790164232254</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0008242176845669746</v>
+        <v>0.02317411452531815</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01425590924918652</v>
+        <v>0.1888930350542068</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007191186770796776</v>
+        <v>0.07427936792373657</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001014414126984775</v>
+        <v>0.171366885304451</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005507007241249084</v>
+        <v>0.2290947288274765</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001714381389319897</v>
+        <v>0.09931328892707825</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003204243024811149</v>
+        <v>0.08312685042619705</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.001400900073349476</v>
+        <v>0.0341656357049942</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.003383527742698789</v>
+        <v>0.09604257345199585</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.003516471479088068</v>
+        <v>0.006259713787585497</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.006134668365120888</v>
+        <v>0.1595853120088577</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.741689190268517e-05</v>
+        <v>0.1270586848258972</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0006422272999770939</v>
+        <v>0.0354803055524826</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.004521842580288649</v>
+        <v>0.2163585722446442</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.00822160579264164</v>
+        <v>0.1513155698776245</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.00255506276153028</v>
+        <v>0.3058339059352875</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.002220046008005738</v>
+        <v>0.1371037214994431</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.004738614894449711</v>
+        <v>0.1201025992631912</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.004198061767965555</v>
+        <v>0.01689157448709011</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.002073182724416256</v>
+        <v>0.2546190023422241</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.004772058688104153</v>
+        <v>0.0258258692920208</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.002019439358264208</v>
+        <v>0.060645941644907</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.00112608855124563</v>
+        <v>0.08838438242673874</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0005074410582892597</v>
+        <v>0.08131232857704163</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001597137772478163</v>
+        <v>0.2164815664291382</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0005462444387376308</v>
+        <v>0.3292589783668518</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.001091307494789362</v>
+        <v>0.04012253507971764</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.01686001382768154</v>
+        <v>0.09635854512453079</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.003639210015535355</v>
+        <v>0.01419409364461899</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01323679089546204</v>
+        <v>0.6453368663787842</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0003255198244005442</v>
+        <v>0.07927184551954269</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.001022223150357604</v>
+        <v>0.2412108480930328</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01280561462044716</v>
+        <v>0.4250987470149994</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01128906011581421</v>
+        <v>0.1564589738845825</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0007219058461487293</v>
+        <v>0.09120140969753265</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.00106600543949753</v>
+        <v>0.07401041686534882</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.009515203535556793</v>
+        <v>0.08683926612138748</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.002712171990424395</v>
+        <v>0.1942230612039566</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003052151063457131</v>
+        <v>0.1926861256361008</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.004931147675961256</v>
+        <v>0.1659304350614548</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.001036821864545345</v>
+        <v>0.1769639551639557</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.003885053563863039</v>
+        <v>0.1400406658649445</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.001461496925912797</v>
+        <v>0.3731884658336639</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.000352871255017817</v>
+        <v>0.1164070591330528</v>
       </c>
       <c r="BM3" t="n">
-        <v>8.662522304803133e-06</v>
+        <v>0.1082636341452599</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.009748401120305061</v>
+        <v>0.04740098118782043</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.100706867873669e-06</v>
+        <v>0.1375365555286407</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.004072917625308037</v>
+        <v>0.1623181104660034</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.005224611610174179</v>
+        <v>0.01986055821180344</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0005098594119772315</v>
+        <v>0.2306993901729584</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.002688412088900805</v>
+        <v>0.05261211842298508</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.004082356113940477</v>
+        <v>0.07959209382534027</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.005135072860866785</v>
+        <v>0.2117832899093628</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0006034658290445805</v>
+        <v>0.02559088543057442</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.004496670328080654</v>
+        <v>0.07659400999546051</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0002138174750143662</v>
+        <v>0.07246696949005127</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01679160073399544</v>
+        <v>0.03277121111750603</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.01091890595853329</v>
+        <v>0.06607988476753235</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.00314456969499588</v>
+        <v>0.1536944806575775</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.006569582968950272</v>
+        <v>0.02554604224860668</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01350847724825144</v>
+        <v>0.0838070884346962</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0007793941767886281</v>
+        <v>0.04331976547837257</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.005092950537800789</v>
+        <v>0.08724860101938248</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.004173974972218275</v>
+        <v>0.001438716426491737</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0001456069585401565</v>
+        <v>0.04346483573317528</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.006411588750779629</v>
+        <v>0.03880320861935616</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.001448682276532054</v>
+        <v>0.01230340171605349</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.001260641496628523</v>
+        <v>0.03123391047120094</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0001399227476213127</v>
+        <v>0.07280706614255905</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.004228309728205204</v>
+        <v>0.01643028855323792</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.005276134703308344</v>
+        <v>0.01224157214164734</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.01270579546689987</v>
+        <v>0.008791076019406319</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.002032558433711529</v>
+        <v>0.04050825163722038</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.004042028449475765</v>
+        <v>0.08346030116081238</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.01148539781570435</v>
+        <v>0.1163903176784515</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.001373654115013778</v>
+        <v>0.1737464368343353</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.002392608439549804</v>
+        <v>0.1206794753670692</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0002399727236479521</v>
+        <v>0.0989825576543808</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.002440626500174403</v>
+        <v>0.07172499597072601</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.000563805631827563</v>
+        <v>0.03186648339033127</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.004138360265642405</v>
+        <v>0.09611416608095169</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.004505536984652281</v>
+        <v>0.01327014900743961</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0006779234972782433</v>
+        <v>0.04828255251049995</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.007705683819949627</v>
+        <v>0.06244945526123047</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.000453131040558219</v>
+        <v>0.007351364940404892</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0020820084027946</v>
+        <v>0.02300369739532471</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0006226175464689732</v>
+        <v>0.09634909778833389</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.005572912748903036</v>
+        <v>0.005781402811408043</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.01015916094183922</v>
+        <v>0.02910564839839935</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0187621284276247</v>
+        <v>0.2005546689033508</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01779874041676521</v>
+        <v>0.06109610572457314</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.003567273961380124</v>
+        <v>0.1724587231874466</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.004911076277494431</v>
+        <v>0.4782906174659729</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.003807501401752234</v>
+        <v>0.4422880709171295</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.001987155759707093</v>
+        <v>0.006954226642847061</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.003437761217355728</v>
+        <v>0.1332303434610367</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.007138649001717567</v>
+        <v>0.2914436459541321</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0006084090564399958</v>
+        <v>0.07229285687208176</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.003221567487344146</v>
+        <v>0.07734482735395432</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.001542433514259756</v>
+        <v>0.04840406030416489</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.001374164130538702</v>
+        <v>0.1698618829250336</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.004418202675879002</v>
+        <v>0.442369282245636</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.001337050925940275</v>
+        <v>0.1344652026891708</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.001736689591780305</v>
+        <v>0.02949535101652145</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.006041941232979298</v>
+        <v>0.3574561774730682</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001346888486295938</v>
+        <v>0.00031253881752491</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0005889473250135779</v>
+        <v>0.002415938302874565</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.001661290880292654</v>
+        <v>0.2221521884202957</v>
       </c>
       <c r="DY3" t="n">
-        <v>2.214743290096521e-05</v>
+        <v>0.04442064091563225</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.001010506297461689</v>
+        <v>0.1084783524274826</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0004816025029867887</v>
+        <v>0.01618286967277527</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0001928554847836494</v>
+        <v>0.05646276473999023</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001292150001972914</v>
+        <v>0.02757369726896286</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.002791317645460367</v>
+        <v>0.0112281758338213</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.001083803828805685</v>
+        <v>0.1083380579948425</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.002230701502412558</v>
+        <v>0.02579103037714958</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.003071124665439129</v>
+        <v>0.04734017327427864</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.004428813699632883</v>
+        <v>0.02251674607396126</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0007487322436645627</v>
+        <v>0.00875704362988472</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.002817531814798713</v>
+        <v>0.1200782507658005</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.006733732763677835</v>
+        <v>0.1196329072117805</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.001415302278473973</v>
+        <v>0.02104384452104568</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.001093424158170819</v>
+        <v>0.02454358153045177</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.003509751288220286</v>
+        <v>0.03048543818295002</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.00038243064773269</v>
+        <v>0.06986147165298462</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00481517193838954</v>
+        <v>0.1954388469457626</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004353472962975502</v>
+        <v>0.008856994099915028</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.002798204775899649</v>
+        <v>0.06757274270057678</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.004227068740874529</v>
+        <v>0.177154928445816</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.002165834186598659</v>
+        <v>0.1051875278353691</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.00365864671766758</v>
+        <v>0.1236884370446205</v>
       </c>
       <c r="EV3" t="n">
-        <v>8.207757491618395e-05</v>
+        <v>0.1126724630594254</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0007685135351493955</v>
+        <v>0.07878687232732773</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0008196671842597425</v>
+        <v>0.05549491196870804</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.00387856038287282</v>
+        <v>0.08264975994825363</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.004550272598862648</v>
+        <v>0.001120232045650482</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0009712930768728256</v>
+        <v>0.06751833111047745</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.005836171098053455</v>
+        <v>0.03195677697658539</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0002463851706124842</v>
+        <v>0.001735758036375046</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.000960882636718452</v>
+        <v>0.03544500097632408</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0002812159364111722</v>
+        <v>0.149189218878746</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.005537861026823521</v>
+        <v>0.04426223784685135</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.003146584145724773</v>
+        <v>0.09770422428846359</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0005676470464095473</v>
+        <v>0.1494440138339996</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.002549304161220789</v>
+        <v>0.01742632128298283</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.001963252667337656</v>
+        <v>0.1188423037528992</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.004763900302350521</v>
+        <v>0.132126584649086</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.001213817857205868</v>
+        <v>0.1026455536484718</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.002963119186460972</v>
+        <v>0.01316037401556969</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.0009751308243721724</v>
+        <v>0.2366559356451035</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.00811145082116127</v>
+        <v>0.08071444928646088</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0006317603401839733</v>
+        <v>0.1169547215104103</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.006287491880357265</v>
+        <v>0.07350189238786697</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0001334929838776588</v>
+        <v>0.1137984395027161</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.002482694340869784</v>
+        <v>0.02660071104764938</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.003227015491575003</v>
+        <v>0.1770925670862198</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.004050511866807938</v>
+        <v>0.1938930153846741</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.001390409655869007</v>
+        <v>0.07893882691860199</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.001132217119447887</v>
+        <v>0.03413866087794304</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.004678564611822367</v>
+        <v>0.124619722366333</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.000566307338885963</v>
+        <v>0.02853546664118767</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.001762209343723953</v>
+        <v>0.02652196958661079</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.001955964835360646</v>
+        <v>0.01190339028835297</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.001137606217525899</v>
+        <v>0.009347282350063324</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.001031444524414837</v>
+        <v>0.04230314493179321</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.004397663287818432</v>
+        <v>0.1067606955766678</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0003952088300138712</v>
+        <v>0.02045245096087456</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.001999340485781431</v>
+        <v>0.08968875557184219</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0003316749352961779</v>
+        <v>0.02400924265384674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0006052573444321752</v>
+        <v>0.005435765720903873</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0008267264347523451</v>
+        <v>0.03470630198717117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009060988668352365</v>
+        <v>0.000262263318290934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004222763527650386</v>
+        <v>0.01841084472835064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001643422059714794</v>
+        <v>0.004958399571478367</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005089883925393224</v>
+        <v>0.00655114883556962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003410702338442206</v>
+        <v>0.0005210380768403411</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001946566480910406</v>
+        <v>0.0003262638347223401</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002633292227983475</v>
+        <v>0.0009262301027774811</v>
       </c>
       <c r="J4" t="n">
-        <v>9.312579641118646e-05</v>
+        <v>0.007206320762634277</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0007056210888549685</v>
+        <v>0.02213429659605026</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001486845896579325</v>
+        <v>0.00177839130628854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0002291699784109369</v>
+        <v>0.01623950898647308</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001003874698653817</v>
+        <v>0.01078859157860279</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006319258245639503</v>
+        <v>0.01247734948992729</v>
       </c>
       <c r="P4" t="n">
-        <v>0.000454593391623348</v>
+        <v>0.001987557392567396</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0002140390570275486</v>
+        <v>0.005643961485475302</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002913955366238952</v>
+        <v>0.002803092822432518</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001159154999186285</v>
+        <v>0.0001233384682564065</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0003348185564391315</v>
+        <v>0.004503657110035419</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001997743092942983</v>
+        <v>0.001234111725352705</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0009109023958444595</v>
+        <v>0.004433783702552319</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0005255702417343855</v>
+        <v>0.0003854284877888858</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0002038893289864063</v>
+        <v>9.732623584568501e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003862642042804509</v>
+        <v>0.006019000429660082</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004108630237169564</v>
+        <v>0.001766265369951725</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0001257398398593068</v>
+        <v>0.002419288037344813</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0001524832769064233</v>
+        <v>0.002908200025558472</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0004449686384759843</v>
+        <v>0.005330296698957682</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0002417630748823285</v>
+        <v>0.0005359944771043956</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0001193282660096884</v>
+        <v>0.00126742897555232</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0008475491777062416</v>
+        <v>0.004192954394966364</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.47477458085632e-05</v>
+        <v>0.002940087579190731</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0001362883194815367</v>
+        <v>3.114854916930199e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0008343418594449759</v>
+        <v>0.002801355673000216</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0006325355498120189</v>
+        <v>0.002101049991324544</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.441908433567733e-05</v>
+        <v>0.002857648767530918</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0009382652351632714</v>
+        <v>0.003087757155299187</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0002247935772174969</v>
+        <v>9.892668458633125e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0004147443978581578</v>
+        <v>0.001691636629402637</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0002000081585720181</v>
+        <v>0.001943061593919992</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0008087080786935985</v>
+        <v>0.005357127636671066</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0001289141509914771</v>
+        <v>0.001154277706518769</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.317385800182819e-05</v>
+        <v>0.001881743664853275</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0001862947101471946</v>
+        <v>0.00182235729880631</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0005739537300541997</v>
+        <v>0.004057441838085651</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.001896787667647004</v>
+        <v>0.02354514971375465</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001757088932208717</v>
+        <v>0.002704796614125371</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.074410778935999e-05</v>
+        <v>0.00753382034599781</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0001144443813245744</v>
+        <v>0.006403997540473938</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.001666143303737044</v>
+        <v>0.001457073609344661</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9.2544243671e-05</v>
+        <v>0.00351324793882668</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0005326613318175077</v>
+        <v>0.002105621621012688</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.000965635001193732</v>
+        <v>0.00358275044709444</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.019427145365626e-06</v>
+        <v>0.003171365708112717</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0002165449986932799</v>
+        <v>0.004336100071668625</v>
       </c>
       <c r="BE4" t="n">
-        <v>9.224592940881848e-05</v>
+        <v>0.003935746382921934</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0004062612424604595</v>
+        <v>0.001421477878466249</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0002858039224520326</v>
+        <v>0.009157677181065083</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0009628157131373882</v>
+        <v>0.004048041999340057</v>
       </c>
       <c r="BI4" t="n">
-        <v>5.28863602085039e-05</v>
+        <v>0.003442454151809216</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0007445575320161879</v>
+        <v>0.004593473393470049</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0005969546036794782</v>
+        <v>0.0005326810642145574</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0001726996706565842</v>
+        <v>0.004404628649353981</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0001657087123021483</v>
+        <v>0.0007431918056681752</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.000767246528994292</v>
+        <v>0.001898696413263679</v>
       </c>
       <c r="BO4" t="n">
-        <v>4.496280598687008e-05</v>
+        <v>0.004180111922323704</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0002691252448130399</v>
+        <v>0.003526601940393448</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.000244572845986113</v>
+        <v>0.001014311332255602</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.000130057756905444</v>
+        <v>0.0006969040259718895</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.000439117691712454</v>
+        <v>0.0009264511754736304</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0003480771847534925</v>
+        <v>0.0020134337246418</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0001360812311759219</v>
+        <v>0.002065651118755341</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0006792243802919984</v>
+        <v>0.01240516267716885</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0003560576587915421</v>
+        <v>0.0004448843537829816</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0004821239854209125</v>
+        <v>0.0020185811445117</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0005350374267436564</v>
+        <v>0.0007755676633678377</v>
       </c>
       <c r="BZ4" t="n">
-        <v>7.408828241750598e-05</v>
+        <v>0.005135728511959314</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.938738907687366e-05</v>
+        <v>0.00179364113137126</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.000486728735268116</v>
+        <v>0.002064248779788613</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.001115271123126149</v>
+        <v>0.002646105131134391</v>
       </c>
       <c r="CD4" t="n">
-        <v>8.233590051531792e-06</v>
+        <v>0.00236226711422205</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0006629082490690053</v>
+        <v>0.005958163179457188</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0002936100936494768</v>
+        <v>0.001753883785568178</v>
       </c>
       <c r="CG4" t="n">
-        <v>9.360589319840074e-05</v>
+        <v>0.001155760954134166</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0003178723563905805</v>
+        <v>0.0004572017933242023</v>
       </c>
       <c r="CI4" t="n">
-        <v>8.960386912804097e-05</v>
+        <v>0.001342180650681257</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.231068356195465e-05</v>
+        <v>0.001134919002652168</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0001364370109513402</v>
+        <v>0.0005072238272987306</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0003465487097855657</v>
+        <v>0.001294140936806798</v>
       </c>
       <c r="CM4" t="n">
-        <v>4.296724364394322e-05</v>
+        <v>0.002526717493310571</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.001081316149793565</v>
+        <v>0.0002360169892199337</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0004325740446802229</v>
+        <v>0.004687568172812462</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.000327918998664245</v>
+        <v>0.005120698362588882</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.499807305866852e-05</v>
+        <v>0.005189672578126192</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0002594600955490023</v>
+        <v>0.004640527069568634</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0002090039197355509</v>
+        <v>0.001843748963437974</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0003092614351771772</v>
+        <v>0.007034984417259693</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0005147553747519851</v>
+        <v>0.0003111375553999096</v>
       </c>
       <c r="CV4" t="n">
-        <v>4.523336247075349e-05</v>
+        <v>0.002076455391943455</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.000586056848987937</v>
+        <v>0.004695722833275795</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0002043734421022236</v>
+        <v>0.00168502563610673</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.320164639968425e-05</v>
+        <v>0.003632847219705582</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0005096740205772221</v>
+        <v>0.0003172481374349445</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.457483449485153e-06</v>
+        <v>0.001630324521102011</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.0001577933289809152</v>
+        <v>0.0009378233808092773</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0001053058222169057</v>
+        <v>0.0003028493374586105</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0004525968688540161</v>
+        <v>0.001005950500257313</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0002973399241454899</v>
+        <v>0.001656728680245578</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0005571956862695515</v>
+        <v>0.005050260573625565</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.001337557914666831</v>
+        <v>0.001603572512976825</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0003968279925175011</v>
+        <v>0.009802363812923431</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.001352562219835818</v>
+        <v>0.003584602847695351</v>
       </c>
       <c r="DJ4" t="n">
-        <v>5.034178684582002e-05</v>
+        <v>0.001271612476557493</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.00054930429905653</v>
+        <v>0.0026504579000175</v>
       </c>
       <c r="DL4" t="n">
-        <v>4.978242577635683e-05</v>
+        <v>0.005345825105905533</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0003428074123803526</v>
+        <v>0.0004903836525045335</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0001343509502476081</v>
+        <v>0.006376400589942932</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0006264026160351932</v>
+        <v>0.003207990201190114</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0003041646559722722</v>
+        <v>0.001420892775058746</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0006656894693151116</v>
+        <v>0.0003536270232871175</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.000145414232974872</v>
+        <v>0.0005541950231418014</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.000962825259193778</v>
+        <v>0.00560850091278553</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0005596520495600998</v>
+        <v>0.001042640302330256</v>
       </c>
       <c r="DU4" t="n">
-        <v>6.584231596207246e-05</v>
+        <v>0.0005614255205728114</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0002070684131467715</v>
+        <v>0.002277563791722059</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0002860660606529564</v>
+        <v>0.002603365341201425</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0004655341326724738</v>
+        <v>0.0003541882033459842</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0003803475701715797</v>
+        <v>0.007760385517030954</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0002272996352985501</v>
+        <v>0.001366734737530351</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0003352637286297977</v>
+        <v>0.004444103222340345</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0002960526908282191</v>
+        <v>0.0003719727974385023</v>
       </c>
       <c r="EC4" t="n">
-        <v>3.975578874815255e-05</v>
+        <v>0.0005333383451215923</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0002848690492101014</v>
+        <v>0.001354133244603872</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.417311043245718e-05</v>
+        <v>0.0006259412039071321</v>
       </c>
       <c r="EF4" t="n">
-        <v>5.847349530085921e-05</v>
+        <v>0.000644828483927995</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.001136513077653944</v>
+        <v>0.002800066489726305</v>
       </c>
       <c r="EH4" t="n">
-        <v>5.28796917933505e-05</v>
+        <v>0.0009475233964622021</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0002670372778084129</v>
+        <v>0.0009349374449811876</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0003658931236714125</v>
+        <v>0.002227348042652011</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.0004446143575478345</v>
+        <v>0.0003294248890597373</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.000213147111935541</v>
+        <v>0.00179193401709199</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0002801397349685431</v>
+        <v>0.00170365534722805</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0005270612891763449</v>
+        <v>0.0004267999611329287</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0002267968375235796</v>
+        <v>0.003287344239652157</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0003996094746980816</v>
+        <v>0.004127353429794312</v>
       </c>
       <c r="EQ4" t="n">
-        <v>7.519945211242884e-05</v>
+        <v>0.00128454458899796</v>
       </c>
       <c r="ER4" t="n">
-        <v>5.527256871573627e-05</v>
+        <v>0.004626742098480463</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0002682076883502305</v>
+        <v>0.003313605673611164</v>
       </c>
       <c r="ET4" t="n">
-        <v>2.053292337222956e-05</v>
+        <v>0.009986243210732937</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0005307490937411785</v>
+        <v>0.0003650015569292009</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.000203966410481371</v>
+        <v>0.002369961235672235</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0004550715675577521</v>
+        <v>0.001076393644325435</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.746283669490367e-05</v>
+        <v>0.001910591498017311</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0005909307510592043</v>
+        <v>0.00482993246987462</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0002282694767927751</v>
+        <v>0.0007938779890537262</v>
       </c>
       <c r="FA4" t="n">
-        <v>6.247974852158222e-06</v>
+        <v>0.002299305517226458</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0002781761577352881</v>
+        <v>0.0001653119397815317</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.0001056726541719399</v>
+        <v>0.001943677663803101</v>
       </c>
       <c r="FD4" t="n">
-        <v>7.807399379089475e-05</v>
+        <v>0.001165404682978988</v>
       </c>
       <c r="FE4" t="n">
-        <v>5.633544060401618e-05</v>
+        <v>0.0001617555390112102</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0004607469600159675</v>
+        <v>0.001281428267247975</v>
       </c>
       <c r="FG4" t="n">
-        <v>9.438113193027675e-05</v>
+        <v>0.0004865532973781228</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0002831576857715845</v>
+        <v>0.002732644323259592</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0003202827065251768</v>
+        <v>0.001445732545107603</v>
       </c>
       <c r="FJ4" t="n">
-        <v>4.461033677216619e-05</v>
+        <v>0.00333893671631813</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0003373169456608593</v>
+        <v>0.000390443135984242</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0002476713561918586</v>
+        <v>0.0003709225566126406</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0003442107699811459</v>
+        <v>0.00186355912592262</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0002477035450283438</v>
+        <v>0.001042570685967803</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0003906884521711618</v>
+        <v>0.00367398839443922</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.0003915141860488802</v>
+        <v>0.003557763062417507</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0001105116971302778</v>
+        <v>0.007445242255926132</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0003705928102135658</v>
+        <v>0.0007255185046233237</v>
       </c>
       <c r="FS4" t="n">
-        <v>9.594146104063839e-05</v>
+        <v>0.007559284567832947</v>
       </c>
       <c r="FT4" t="n">
-        <v>2.264375507365912e-05</v>
+        <v>0.01067735441029072</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0004647013847716153</v>
+        <v>0.001499499659985304</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0002148667117580771</v>
+        <v>0.0003740255779121071</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0001732448872644454</v>
+        <v>0.002227746415883303</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0004318002029322088</v>
+        <v>0.002325232373550534</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0002337126643396914</v>
+        <v>0.003079683752730489</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3.688313518068753e-05</v>
+        <v>0.003102490678429604</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0005180467269383371</v>
+        <v>0.003963207826018333</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0003773512726183981</v>
+        <v>0.002568443771451712</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0001829371612984687</v>
+        <v>0.005432525649666786</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0001984327973332256</v>
+        <v>0.003618390997871757</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0003431106160860509</v>
+        <v>0.005620621610432863</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0002928179746959358</v>
+        <v>0.001151189673691988</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.108618562284391e-05</v>
+        <v>0.001972988247871399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.000865936977788806</v>
+        <v>3.541967817000113e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0007290039211511612</v>
+        <v>0.0003107047523371875</v>
       </c>
       <c r="C5" t="n">
-        <v>8.374682511202991e-05</v>
+        <v>1.998073275899515e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0006092494004406035</v>
+        <v>0.0001245899911737069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001385689101880416</v>
+        <v>0.0001226996391778812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005458491505123675</v>
+        <v>0.0001763197215041146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002695353177841753</v>
+        <v>2.528729964978993e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002994228270836174</v>
+        <v>5.53932404727675e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001403119182214141</v>
+        <v>1.695561513770372e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001069573569111526</v>
+        <v>2.229630626970902e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005576627445407212</v>
+        <v>0.00030316854827106</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008536325767636299</v>
+        <v>4.976378113497049e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0004063213127665222</v>
+        <v>0.0001472238509450108</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0007711455691605806</v>
+        <v>0.0001707871415419504</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005037517985329032</v>
+        <v>0.0002240404282929376</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0005188359064050019</v>
+        <v>0.000138228788273409</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001302151358686388</v>
+        <v>8.156973490258679e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001491130329668522</v>
+        <v>3.70244997611735e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>7.705113966949284e-05</v>
+        <v>3.565324732335284e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>5.889710337214638e-06</v>
+        <v>6.936389399925247e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0001037747497321106</v>
+        <v>3.934139022021554e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0005543254083022475</v>
+        <v>1.488059024268296e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0001754413533490151</v>
+        <v>4.867220195592381e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0004555846680887043</v>
+        <v>6.213466258486733e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0003421145665924996</v>
+        <v>4.289945991331479e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0001979681692318991</v>
+        <v>2.70140117208939e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0003096028231084347</v>
+        <v>4.889198862656485e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001819844619603828</v>
+        <v>5.407084972830489e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.425571675412357e-05</v>
+        <v>5.583156234933995e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0002549124183133245</v>
+        <v>9.946645877789706e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0006136656156741083</v>
+        <v>6.522960029542446e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0009096379508264363</v>
+        <v>8.667177462484688e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0001175174693344161</v>
+        <v>4.755387271870859e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.00013495865277946</v>
+        <v>6.039073196006939e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0008995094103738666</v>
+        <v>3.146609378745779e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0004278528213035315</v>
+        <v>4.530224032350816e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0001745762128848583</v>
+        <v>1.281257937080227e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0004325810587033629</v>
+        <v>7.469738193321973e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0004276587860658765</v>
+        <v>2.262515045003965e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0004776209534611553</v>
+        <v>1.908920603455044e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0003870408982038498</v>
+        <v>5.719986802432686e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0008690610993653536</v>
+        <v>4.025604357593693e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.659324571955949e-05</v>
+        <v>3.172974538756534e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0002139761636499316</v>
+        <v>7.015741175564472e-06</v>
       </c>
       <c r="AS5" t="n">
-        <v>3.999736509285867e-05</v>
+        <v>1.945641088241246e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.7443613614887e-05</v>
+        <v>6.599861808354035e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0008563221781514585</v>
+        <v>0.0001849670516094193</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0007163133122958243</v>
+        <v>2.688720996957272e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.498837658204138e-05</v>
+        <v>5.326324026100338e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0002271457487950101</v>
+        <v>3.521152757457457e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0008529712213203311</v>
+        <v>3.882223245454952e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0004406556254252791</v>
+        <v>0.0001303151075262576</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001881675270851701</v>
+        <v>5.694409264833666e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0008952136267907917</v>
+        <v>8.075225196080282e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0003620111965574324</v>
+        <v>3.65974847227335e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0006558176828548312</v>
+        <v>0.0001327609788859263</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0003445793990977108</v>
+        <v>1.463944772694958e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0002459849929437041</v>
+        <v>1.368722860206617e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0007732335943728685</v>
+        <v>0.0001925681863212958</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0005519342957995832</v>
+        <v>9.691134619060904e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0004948421847075224</v>
+        <v>5.344902456272393e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.001107283169403672</v>
+        <v>4.184093995718285e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>6.739881064277142e-05</v>
+        <v>1.874126246548258e-05</v>
       </c>
       <c r="BL5" t="n">
-        <v>4.629493560059927e-05</v>
+        <v>6.035135447746143e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0001254112285096198</v>
+        <v>3.117776577710174e-05</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0005676069413311779</v>
+        <v>1.718912972137332e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>3.197940532118082e-05</v>
+        <v>5.330461135599762e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0001463955850340426</v>
+        <v>6.408449280570494e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0001618741807760671</v>
+        <v>2.442894219711889e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>5.183680332265794e-05</v>
+        <v>3.448236384429038e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0005039470852352679</v>
+        <v>2.880167266994249e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0001923408708535135</v>
+        <v>9.584207873558626e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0007214071229100227</v>
+        <v>5.164349568076432e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0004502616357058287</v>
+        <v>0.0001043062802636996</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0001549438748043031</v>
+        <v>9.184240298054647e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0004059560305904597</v>
+        <v>3.446995106060058e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0002086030290229246</v>
+        <v>1.786683787941001e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0003767069429159164</v>
+        <v>2.851823410310317e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>9.556133591104299e-05</v>
+        <v>6.589242548216134e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>4.669500776799396e-05</v>
+        <v>2.523604780435562e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0006156613235361874</v>
+        <v>1.518214412499219e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0002212585095549002</v>
+        <v>1.29253512568539e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0004108920693397522</v>
+        <v>5.539102858165279e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>5.808167406939901e-05</v>
+        <v>1.839197284425609e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>9.765524737304077e-05</v>
+        <v>1.831619738368317e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>3.962416667491198e-05</v>
+        <v>4.285507202439476e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0001575956994201988</v>
+        <v>1.782364779501222e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>7.199947140179574e-05</v>
+        <v>4.19290954596363e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>7.822563929948956e-06</v>
+        <v>2.249304543511244e-06</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0001378556626150385</v>
+        <v>2.356868753849994e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0001486327819293365</v>
+        <v>2.934402618848253e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>9.191288700094447e-05</v>
+        <v>5.681145921698771e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0001057188273989595</v>
+        <v>4.518768037087284e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.000353450741386041</v>
+        <v>3.83694568881765e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>7.303755410248414e-05</v>
+        <v>1.80263214133447e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0001531734451418743</v>
+        <v>4.665182132157497e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0001360334863420576</v>
+        <v>9.752674668561667e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0007653480279259384</v>
+        <v>0.0001428554824087769</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0003279348602518439</v>
+        <v>1.013945893646451e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0002106270694639534</v>
+        <v>1.15224784167367e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0003757476806640625</v>
+        <v>4.475515379454009e-05</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.745173722156323e-05</v>
+        <v>5.562046226259554e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.581094693392515e-05</v>
+        <v>2.565247632446699e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0001278620475204661</v>
+        <v>2.363039584452054e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0002474343637004495</v>
+        <v>2.975012648676056e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.752898944891058e-05</v>
+        <v>2.35734878515359e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.921026680269279e-05</v>
+        <v>3.710409146151505e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0002331271534785628</v>
+        <v>2.023779416049365e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0001821462938096374</v>
+        <v>4.218315007165074e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0005333278095349669</v>
+        <v>8.119027188513428e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.001138230436481535</v>
+        <v>0.0001012110515148379</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0002085722517222166</v>
+        <v>7.973218453116715e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>4.472210275707766e-05</v>
+        <v>3.25044929923024e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0009891291847452521</v>
+        <v>4.348209040472284e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0001948805729625747</v>
+        <v>6.776629743399099e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.000409772910643369</v>
+        <v>8.564888048567809e-06</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0001232764043379575</v>
+        <v>9.139724170381669e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.000186348261195235</v>
+        <v>4.232208539178828e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>3.233039024053141e-05</v>
+        <v>4.0495546272723e-05</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0005353636224754155</v>
+        <v>1.733074714138638e-05</v>
       </c>
       <c r="DQ5" t="n">
-        <v>6.720375677105039e-05</v>
+        <v>0.0001412290439475328</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.000101708727015648</v>
+        <v>5.083268115413375e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0001983629335882142</v>
+        <v>8.436655480181798e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0003175001475028694</v>
+        <v>3.462758832029067e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0002543101436458528</v>
+        <v>3.965291034546681e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0002843309193849564</v>
+        <v>8.868018994689919e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>5.092000719741918e-05</v>
+        <v>2.056804805761203e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.000544380396604538</v>
+        <v>5.134407729201484e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>6.968556408537552e-05</v>
+        <v>1.161883210443193e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0001579238596605137</v>
+        <v>0.0001146219583461061</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0003767322923522443</v>
+        <v>3.119289613096043e-05</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0002135335234925151</v>
+        <v>7.02956021996215e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0002781445509754121</v>
+        <v>6.601349014090374e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0004015162121504545</v>
+        <v>8.470225293422118e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0001314889668719843</v>
+        <v>3.190201459801756e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0002812801976688206</v>
+        <v>5.707634500140557e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001252874615602195</v>
+        <v>4.63997530459892e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>9.503636829322204e-05</v>
+        <v>2.193456566601526e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0001156257567345165</v>
+        <v>7.823510532034561e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0001509505964349955</v>
+        <v>2.924658474512398e-05</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0001278078852919862</v>
+        <v>1.592681428519427e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>9.319266973761842e-05</v>
+        <v>8.038096711970866e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>7.283235754584894e-05</v>
+        <v>1.95505181181943e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0002739436749834567</v>
+        <v>3.581922101147939e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0001839979668147862</v>
+        <v>2.07493758352939e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0002654986164998263</v>
+        <v>6.833930456195958e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>6.343686982290819e-05</v>
+        <v>2.309736009920016e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0002557540137786418</v>
+        <v>3.544564970070496e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0003936632128898054</v>
+        <v>6.610061245737597e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0008785944082774222</v>
+        <v>8.393442840315402e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0002933641953859478</v>
+        <v>1.815553332562558e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0001068048004526645</v>
+        <v>4.899487976217642e-05</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0003037586866412312</v>
+        <v>1.677787963672017e-06</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0002609420916996896</v>
+        <v>8.919871106627397e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0003580739721655846</v>
+        <v>4.650670598493889e-05</v>
       </c>
       <c r="EZ5" t="n">
-        <v>5.109277117298916e-05</v>
+        <v>1.254434573638719e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>1.458131009712815e-06</v>
+        <v>1.132337001763517e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>2.955267336801626e-05</v>
+        <v>1.384091228828765e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0002435586648061872</v>
+        <v>3.213602758478373e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>2.81095490208827e-05</v>
+        <v>2.959631456178613e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>5.603510362561792e-05</v>
+        <v>1.611986408533994e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.000263105146586895</v>
+        <v>2.687961386982352e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0004672988725360483</v>
+        <v>2.072976349154487e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>9.024664905155078e-05</v>
+        <v>4.18496856582351e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0003372175851836801</v>
+        <v>2.157227072530077e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0001568888692418113</v>
+        <v>9.769141615834087e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0003287724102847278</v>
+        <v>9.225351095665246e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0002148292405763641</v>
+        <v>4.695779352914542e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0005973564693704247</v>
+        <v>3.783782085520215e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>7.423450006172061e-05</v>
+        <v>9.960572060663253e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>3.878248753608204e-05</v>
+        <v>2.067788227577694e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0003803219005931169</v>
+        <v>1.669722769293003e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0003685128758661449</v>
+        <v>0.0001272044464712963</v>
       </c>
       <c r="FR5" t="n">
-        <v>4.250519123161212e-05</v>
+        <v>5.243807754595764e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.0006728992448188365</v>
+        <v>8.666916255606338e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.001088500139303505</v>
+        <v>1.999183587031439e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0002090983325615525</v>
+        <v>0.0001027406397042796</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0002952446811832488</v>
+        <v>0.0001056103574228473</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0001979821245186031</v>
+        <v>4.59452421637252e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0005620599840767682</v>
+        <v>8.306626114062965e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0004522608942352235</v>
+        <v>5.00653732160572e-05</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.001179026206955314</v>
+        <v>5.404998591984622e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>6.85459963278845e-05</v>
+        <v>0.0001244527520611882</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.000308587244944647</v>
+        <v>1.163462366093881e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>5.564012462855317e-05</v>
+        <v>5.931644773227163e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0001266419276362285</v>
+        <v>2.545145980548114e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0002077060635201633</v>
+        <v>3.524846761138178e-05</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.001045311219058931</v>
+        <v>7.725015166215599e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0001340118760708719</v>
+        <v>2.242432674393058e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0008241527830250561</v>
+        <v>0.3776158690452576</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0003059342852793634</v>
+        <v>2.432767629623413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001637905603274703</v>
+        <v>0.1377491652965546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0007941354997456074</v>
+        <v>1.027340054512024</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001107995747588575</v>
+        <v>0.04939290881156921</v>
       </c>
       <c r="F7" t="n">
-        <v>2.009322633966804e-05</v>
+        <v>0.7249276041984558</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006295177154242992</v>
+        <v>0.1422631144523621</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002674017159733921</v>
+        <v>0.2228343188762665</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002032073447480798</v>
+        <v>0.08636242896318436</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003374411608092487</v>
+        <v>0.5925886631011963</v>
       </c>
       <c r="K7" t="n">
-        <v>3.198573176632635e-05</v>
+        <v>1.665263295173645</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001768115209415555</v>
+        <v>0.1082439795136452</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005999074783176184</v>
+        <v>0.938554048538208</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0006160240154713392</v>
+        <v>0.2275305688381195</v>
       </c>
       <c r="O7" t="n">
-        <v>5.803753447253257e-05</v>
+        <v>0.9435400366783142</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0006413576775230467</v>
+        <v>0.1583076864480972</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0005658625159412622</v>
+        <v>0.1192763298749924</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00216122972778976</v>
+        <v>0.1383813321590424</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001212866045534611</v>
+        <v>0.0400703102350235</v>
       </c>
       <c r="T7" t="n">
-        <v>0.000690702348947525</v>
+        <v>0.2048669457435608</v>
       </c>
       <c r="U7" t="n">
-        <v>8.357346814591438e-06</v>
+        <v>0.1637360155582428</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0005775217432528734</v>
+        <v>0.3992013037204742</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0003830611240118742</v>
+        <v>0.2050991207361221</v>
       </c>
       <c r="X7" t="n">
-        <v>7.981276576174423e-05</v>
+        <v>0.03267652913928032</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001307621860178187</v>
+        <v>0.2074780613183975</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0003542920167092234</v>
+        <v>0.3014176189899445</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0002381012309342623</v>
+        <v>0.295303076505661</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0002451225882396102</v>
+        <v>0.02128574252128601</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.000126440601889044</v>
+        <v>0.3220609724521637</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0001084412360796705</v>
+        <v>0.1288753300905228</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001924422685988247</v>
+        <v>0.1955288052558899</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.749570745043457e-05</v>
+        <v>0.1417673677206039</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0003244407416786999</v>
+        <v>0.1912495344877243</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.000152938038809225</v>
+        <v>0.08205228298902512</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0005405135452747345</v>
+        <v>0.008945774286985397</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0006614146986976266</v>
+        <v>0.20538030564785</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0001225543819600716</v>
+        <v>0.1545605510473251</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0002807850833050907</v>
+        <v>0.2273218780755997</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0001187362795462832</v>
+        <v>0.1034563556313515</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.733005961403251e-05</v>
+        <v>0.2098180055618286</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.838656554464251e-05</v>
+        <v>0.1169680580496788</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0006302206893451512</v>
+        <v>0.3171998560428619</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6.681417289655656e-05</v>
+        <v>0.05720622837543488</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0002945796295534819</v>
+        <v>0.03484007343649864</v>
       </c>
       <c r="AS7" t="n">
-        <v>5.805876571685076e-05</v>
+        <v>0.1727947294712067</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0005780368810519576</v>
+        <v>0.1851565986871719</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.602504850481637e-05</v>
+        <v>1.623558402061462</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.001167372800409794</v>
+        <v>0.02951926924288273</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0004284319002181292</v>
+        <v>0.1723265945911407</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0005140296998433769</v>
+        <v>0.357533872127533</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0009296356583945453</v>
+        <v>0.02100665494799614</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8.529586193617433e-05</v>
+        <v>0.01549799367785454</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0004679100238718092</v>
+        <v>0.2398745566606522</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0008031587931327522</v>
+        <v>0.3846845924854279</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0001051502185873687</v>
+        <v>0.2991101145744324</v>
       </c>
       <c r="BD7" t="n">
-        <v>6.926953938091174e-05</v>
+        <v>0.3500378727912903</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0003865922917611897</v>
+        <v>0.4080423414707184</v>
       </c>
       <c r="BF7" t="n">
-        <v>3.680639565573074e-05</v>
+        <v>0.1664492785930634</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0001607398444321007</v>
+        <v>0.5873063802719116</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0003270044981036335</v>
+        <v>0.371997743844986</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0001448340772185475</v>
+        <v>0.2084099948406219</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0003334985522087663</v>
+        <v>0.3094754815101624</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0002867384464479983</v>
+        <v>0.007689099758863449</v>
       </c>
       <c r="BL7" t="n">
-        <v>9.776885417522863e-05</v>
+        <v>0.2000355422496796</v>
       </c>
       <c r="BM7" t="n">
-        <v>8.432507456745952e-05</v>
+        <v>0.2762524485588074</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0004284159513190389</v>
+        <v>0.08904419839382172</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0001793838891899213</v>
+        <v>0.4090407192707062</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0002572436351329088</v>
+        <v>0.08799132704734802</v>
       </c>
       <c r="BQ7" t="n">
-        <v>5.5013268138282e-05</v>
+        <v>0.08194325864315033</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0002061753766611218</v>
+        <v>0.100115492939949</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0004958968493156135</v>
+        <v>0.005324227269738913</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0004287099582143128</v>
+        <v>0.1030749157071114</v>
       </c>
       <c r="BU7" t="n">
-        <v>5.548668559640646e-05</v>
+        <v>0.1046774759888649</v>
       </c>
       <c r="BV7" t="n">
-        <v>5.048140155849978e-05</v>
+        <v>0.798113226890564</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0003959171590395272</v>
+        <v>0.1468707472085953</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0003905211633536965</v>
+        <v>0.1518487632274628</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0004692356451414526</v>
+        <v>0.04634997621178627</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0002575034741312265</v>
+        <v>0.3602012395858765</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0003124097711406648</v>
+        <v>0.1394263505935669</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.4950790500734e-05</v>
+        <v>0.009800396859645844</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.001001421129330993</v>
+        <v>0.311439573764801</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0001688203192315996</v>
+        <v>0.1466134786605835</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.000106657826108858</v>
+        <v>0.4001210331916809</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0003049735969398171</v>
+        <v>0.2119027078151703</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0001255722454516217</v>
+        <v>0.08458603918552399</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0002568276831880212</v>
+        <v>0.1080763638019562</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0001387765514664352</v>
+        <v>0.175819531083107</v>
       </c>
       <c r="CJ7" t="n">
-        <v>6.715230119880289e-05</v>
+        <v>0.06081545352935791</v>
       </c>
       <c r="CK7" t="n">
-        <v>1.115197846957017e-05</v>
+        <v>0.0502755381166935</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0002586025220807642</v>
+        <v>0.1845317929983139</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.00011059802636737</v>
+        <v>0.1058748662471771</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0007001276826485991</v>
+        <v>0.02632248215377331</v>
       </c>
       <c r="CO7" t="n">
-        <v>7.886046660132706e-07</v>
+        <v>0.1823500692844391</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0002053978678304702</v>
+        <v>0.3391688764095306</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0001903474912978709</v>
+        <v>0.2550298869609833</v>
       </c>
       <c r="CR7" t="n">
-        <v>7.650571933481842e-05</v>
+        <v>0.257055252790451</v>
       </c>
       <c r="CS7" t="n">
-        <v>3.034617839148268e-05</v>
+        <v>0.2344764024019241</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.05669805634534e-05</v>
+        <v>0.2121576815843582</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0004275041574146599</v>
+        <v>0.09669769555330276</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0002071734925266355</v>
+        <v>0.1274245828390121</v>
       </c>
       <c r="CW7" t="n">
-        <v>9.182782378047705e-06</v>
+        <v>0.3192595839500427</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0001965870324056596</v>
+        <v>0.2063486725091934</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.000141366763273254</v>
+        <v>0.2251554578542709</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0004152564506512135</v>
+        <v>0.1202180087566376</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.000114545488031581</v>
+        <v>0.2001779079437256</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.000146648395457305</v>
+        <v>0.08287952840328217</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.114233600674197e-05</v>
+        <v>0.09762745350599289</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0003659723151940852</v>
+        <v>0.1217824518680573</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0004476458125282079</v>
+        <v>0.1468281447887421</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0004939598729833961</v>
+        <v>0.1801897287368774</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0007340818992815912</v>
+        <v>0.09633561968803406</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0003607241087593138</v>
+        <v>0.5062806010246277</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0004145596758462489</v>
+        <v>0.3112881779670715</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0001976327912416309</v>
+        <v>0.1116327568888664</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0007213442586362362</v>
+        <v>0.1657377779483795</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0001739908911986277</v>
+        <v>0.1032833755016327</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0005020880489610136</v>
+        <v>0.01281335949897766</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.000122944125905633</v>
+        <v>0.2906703054904938</v>
       </c>
       <c r="DO7" t="n">
-        <v>8.925088332034647e-05</v>
+        <v>0.1623458415269852</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0001334066764684394</v>
+        <v>0.1652648895978928</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0001819979661377147</v>
+        <v>0.09520827233791351</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0001420394546585158</v>
+        <v>0.1391602754592896</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0001578901428729296</v>
+        <v>0.3180017471313477</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.884969969978556e-05</v>
+        <v>0.1123420670628548</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0002406899875495583</v>
+        <v>0.03884297609329224</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0003031577507499605</v>
+        <v>0.2744668126106262</v>
       </c>
       <c r="DW7" t="n">
-        <v>8.711524424143136e-05</v>
+        <v>0.1618602126836777</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0001021784846670926</v>
+        <v>0.09653088450431824</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0001912012521643192</v>
+        <v>0.5221041440963745</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0001230849011335522</v>
+        <v>0.04338394105434418</v>
       </c>
       <c r="EA7" t="n">
-        <v>9.354179201181978e-05</v>
+        <v>0.2584664225578308</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0002251923433504999</v>
+        <v>0.110265389084816</v>
       </c>
       <c r="EC7" t="n">
-        <v>2.417113137198612e-06</v>
+        <v>0.02729310095310211</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0002623267355374992</v>
+        <v>0.1005225479602814</v>
       </c>
       <c r="EE7" t="n">
-        <v>6.787660822737962e-05</v>
+        <v>0.03611850365996361</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0001449892588425428</v>
+        <v>0.0006379783153533936</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0002133649541065097</v>
+        <v>0.2432888150215149</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0002503194555174559</v>
+        <v>0.02885277941823006</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.752958633005619e-05</v>
+        <v>0.02256443537771702</v>
       </c>
       <c r="EJ7" t="n">
-        <v>7.622932025697082e-05</v>
+        <v>0.003008332569152117</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0001074304309440777</v>
+        <v>0.1089785397052765</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0001939720968948677</v>
+        <v>0.08977685868740082</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0002464009739924222</v>
+        <v>0.001020179595798254</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0002044424472842366</v>
+        <v>0.07930102944374084</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0003165175730828196</v>
+        <v>0.1564057320356369</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.00010400076280348</v>
+        <v>0.2754300832748413</v>
       </c>
       <c r="EQ7" t="n">
-        <v>7.895472663221881e-05</v>
+        <v>0.04095311090350151</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0003234830219298601</v>
+        <v>0.3026671409606934</v>
       </c>
       <c r="ES7" t="n">
-        <v>6.200731149874628e-05</v>
+        <v>0.1961964219808578</v>
       </c>
       <c r="ET7" t="n">
-        <v>1.33157373056747e-05</v>
+        <v>0.7380232810974121</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0003536010626703501</v>
+        <v>0.1507120877504349</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.869092375272885e-05</v>
+        <v>0.2136708050966263</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0003487970388960093</v>
+        <v>0.05158383399248123</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0001303949975408614</v>
+        <v>0.110185943543911</v>
       </c>
       <c r="EY7" t="n">
-        <v>8.0410587543156e-05</v>
+        <v>0.3064840137958527</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0002516027307137847</v>
+        <v>0.1234926730394363</v>
       </c>
       <c r="FA7" t="n">
-        <v>7.646484300494194e-05</v>
+        <v>0.163348987698555</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0001928972924361005</v>
+        <v>0.1412232518196106</v>
       </c>
       <c r="FC7" t="n">
-        <v>5.623041943181306e-05</v>
+        <v>0.1812475174665451</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0001167194859590381</v>
+        <v>0.1311215162277222</v>
       </c>
       <c r="FE7" t="n">
-        <v>6.547728844452649e-05</v>
+        <v>0.04460106045007706</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0004399333556648344</v>
+        <v>0.1709513068199158</v>
       </c>
       <c r="FG7" t="n">
-        <v>8.461036486551166e-05</v>
+        <v>0.07510348409414291</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0001629778707865626</v>
+        <v>0.1659756898880005</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0001089930519810878</v>
+        <v>0.1732337772846222</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.000213355349842459</v>
+        <v>0.1688473969697952</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0002231335529359058</v>
+        <v>0.09662919491529465</v>
       </c>
       <c r="FL7" t="n">
-        <v>3.041034506168216e-05</v>
+        <v>0.06390085816383362</v>
       </c>
       <c r="FM7" t="n">
-        <v>3.955033753300086e-05</v>
+        <v>0.02485984563827515</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0002414124319329858</v>
+        <v>0.1233137026429176</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0005032754270359874</v>
+        <v>0.1902194768190384</v>
       </c>
       <c r="FP7" t="n">
-        <v>5.108482582727447e-05</v>
+        <v>0.1846598386764526</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0003812667855527252</v>
+        <v>0.180169090628624</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0001466129760956392</v>
+        <v>0.07741998881101608</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0002738399780355394</v>
+        <v>0.2519988119602203</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0001629348262213171</v>
+        <v>0.6496071815490723</v>
       </c>
       <c r="FU7" t="n">
-        <v>1.913908272399567e-05</v>
+        <v>0.1469545960426331</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0002960715210065246</v>
+        <v>0.03327977657318115</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0001337213325314224</v>
+        <v>0.1230124905705452</v>
       </c>
       <c r="FX7" t="n">
-        <v>3.42450657626614e-05</v>
+        <v>0.1293773800134659</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0001945538097061217</v>
+        <v>0.3152615427970886</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0004953191382810473</v>
+        <v>0.1243953630328178</v>
       </c>
       <c r="GA7" t="n">
-        <v>1.180276922241319e-05</v>
+        <v>0.2812303900718689</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0004892832366749644</v>
+        <v>0.02954638376832008</v>
       </c>
       <c r="GC7" t="n">
-        <v>3.188953996868804e-05</v>
+        <v>0.2567750811576843</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0004135029739700258</v>
+        <v>0.1394527554512024</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0002680625766515732</v>
+        <v>0.7118858695030212</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0002534652594476938</v>
+        <v>0.06614178419113159</v>
       </c>
       <c r="GG7" t="n">
-        <v>9.09920854610391e-05</v>
+        <v>0.1744417399168015</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.62879935791716e-05</v>
+        <v>0.00282678660005331</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001600953983142972</v>
+        <v>0.01214711926877499</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001555351191200316</v>
+        <v>0.001278288546018302</v>
       </c>
       <c r="D9" t="n">
-        <v>7.481634384021163e-05</v>
+        <v>0.00499733118340373</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005017562652938068</v>
+        <v>0.002356437500566244</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001880348281702027</v>
+        <v>0.004020823165774345</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00016666209558025</v>
+        <v>0.0003168248804286122</v>
       </c>
       <c r="H9" t="n">
-        <v>8.03087095846422e-05</v>
+        <v>0.001012476976029575</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006215163157321513</v>
+        <v>0.001873276312835515</v>
       </c>
       <c r="J9" t="n">
-        <v>9.84918005997315e-05</v>
+        <v>0.003033562796190381</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001313696266151965</v>
+        <v>0.007637073751538992</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004359194135759026</v>
+        <v>0.0005835294141434133</v>
       </c>
       <c r="M9" t="n">
-        <v>5.605306796496734e-05</v>
+        <v>0.005964800715446472</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0004037974867969751</v>
+        <v>0.003162852488458157</v>
       </c>
       <c r="O9" t="n">
-        <v>1.057172448781785e-05</v>
+        <v>0.005452200304716825</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0001629667531233281</v>
+        <v>1.754623372107744e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.705094422912225e-05</v>
+        <v>0.00159449886996299</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0005378244095481932</v>
+        <v>0.0009062786120921373</v>
       </c>
       <c r="S9" t="n">
-        <v>7.482994988095015e-05</v>
+        <v>0.0001150560419773683</v>
       </c>
       <c r="T9" t="n">
-        <v>7.326993363676593e-05</v>
+        <v>0.001618594047613442</v>
       </c>
       <c r="U9" t="n">
-        <v>8.590910874772817e-05</v>
+        <v>0.0007776287966407835</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001799046440282837</v>
+        <v>0.002256995998322964</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0001478288177167997</v>
+        <v>0.0001777498400770128</v>
       </c>
       <c r="X9" t="n">
-        <v>3.772937998292036e-05</v>
+        <v>0.001790213631466031</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.000160527226398699</v>
+        <v>0.0004721333971247077</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.720424375496805e-05</v>
+        <v>0.0009404245647601783</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.85366098373197e-05</v>
+        <v>0.0005497938254848123</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.124590562540106e-05</v>
+        <v>0.0004851696430705488</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0001713354286039248</v>
+        <v>0.002393315313383937</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.584883810020983e-05</v>
+        <v>0.0009185826638713479</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001608387246960774</v>
+        <v>0.002050702460110188</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.809781916672364e-05</v>
+        <v>0.001134692342020571</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0001481801009504125</v>
+        <v>0.0004335967532824725</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0001484441454522312</v>
+        <v>0.0002731430577114224</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0001318603608524427</v>
+        <v>5.560534191317856e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0001207080858875997</v>
+        <v>0.0007990081794559956</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.8254852774553e-05</v>
+        <v>0.00187263882253319</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001854738948168233</v>
+        <v>0.001473414711654186</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.527668038965203e-05</v>
+        <v>4.12583103752695e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.662940798676573e-05</v>
+        <v>0.0008405145490542054</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.47261437936686e-05</v>
+        <v>0.001163752051070333</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0003250987501814961</v>
+        <v>0.001295046880841255</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.747662751469761e-05</v>
+        <v>0.0008363919332623482</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.000120743534353096</v>
+        <v>0.0005100807175040245</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.451092794013675e-05</v>
+        <v>0.001086191041395068</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0002418096119072288</v>
+        <v>0.0003231423906981945</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0001732247037580237</v>
+        <v>0.008855970576405525</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0004079003410879523</v>
+        <v>0.0003176757600158453</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.667354268254712e-05</v>
+        <v>0.001891662599518895</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0002003943081945181</v>
+        <v>0.0005468803574331105</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0004266181495040655</v>
+        <v>0.001093181315809488</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7.970689330250025e-05</v>
+        <v>0.00229442841373384</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.275431693822611e-07</v>
+        <v>0.001813556766137481</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0002078056713799015</v>
+        <v>0.0007500535575672984</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.907970727188513e-05</v>
+        <v>0.0005643966724164784</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0001287645427510142</v>
+        <v>0.002219654619693756</v>
       </c>
       <c r="BE9" t="n">
-        <v>7.655287481611595e-05</v>
+        <v>0.001873129629530013</v>
       </c>
       <c r="BF9" t="n">
-        <v>8.787609840510413e-05</v>
+        <v>0.00103716179728508</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.997165888198651e-05</v>
+        <v>0.003255943534895778</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.0001774449774529785</v>
+        <v>0.001735564321279526</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0001162871485576034</v>
+        <v>0.00161698623560369</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0003164140216540545</v>
+        <v>0.002032177522778511</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.0002357051562285051</v>
+        <v>0.00121225870680064</v>
       </c>
       <c r="BL9" t="n">
-        <v>9.135529398918152e-05</v>
+        <v>0.001438026782125235</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.781002331175841e-05</v>
+        <v>0.001377628650516272</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.000215487671084702</v>
+        <v>0.0002665815700311214</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0001295409019803628</v>
+        <v>0.0008224219782277942</v>
       </c>
       <c r="BP9" t="n">
-        <v>4.052628355566412e-05</v>
+        <v>0.00113165401853621</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.828458284260705e-05</v>
+        <v>0.0004071981238666922</v>
       </c>
       <c r="BR9" t="n">
-        <v>7.873232971178368e-05</v>
+        <v>0.001042727497406304</v>
       </c>
       <c r="BS9" t="n">
-        <v>8.573255036026239e-05</v>
+        <v>0.0005750433192588389</v>
       </c>
       <c r="BT9" t="n">
-        <v>7.477514009224251e-05</v>
+        <v>0.0002007214643526822</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.277913906960748e-05</v>
+        <v>0.0001588140439707786</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0001975491177290678</v>
+        <v>0.003769607516005635</v>
       </c>
       <c r="BW9" t="n">
-        <v>8.012698344828095e-06</v>
+        <v>0.0009270152077078819</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.944088919321075e-05</v>
+        <v>0.00161794014275074</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0002964121522381902</v>
+        <v>0.0007903575315140188</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.879997853393434e-06</v>
+        <v>0.001749948598444462</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0001297370763495564</v>
+        <v>0.0005810654256492853</v>
       </c>
       <c r="CB9" t="n">
-        <v>6.838187982793897e-05</v>
+        <v>0.0002105312596540898</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0002608676732052118</v>
+        <v>9.17155557544902e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>6.283925904426724e-05</v>
+        <v>0.0006904029287397861</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0001819197641452774</v>
+        <v>0.002172223059460521</v>
       </c>
       <c r="CF9" t="n">
-        <v>3.532233313308097e-05</v>
+        <v>0.0005438000080175698</v>
       </c>
       <c r="CG9" t="n">
-        <v>4.617828017217107e-05</v>
+        <v>7.546998676843941e-05</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.000118533062050119</v>
+        <v>0.0003584973746910691</v>
       </c>
       <c r="CI9" t="n">
-        <v>4.173460911260918e-05</v>
+        <v>0.0007391548133455217</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5.275530202197842e-05</v>
+        <v>0.0005257074953988194</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.509929254301824e-05</v>
+        <v>0.000270349410129711</v>
       </c>
       <c r="CL9" t="n">
-        <v>3.965236101066694e-05</v>
+        <v>0.0003171080024912953</v>
       </c>
       <c r="CM9" t="n">
-        <v>2.801358641590923e-05</v>
+        <v>0.001429508090950549</v>
       </c>
       <c r="CN9" t="n">
-        <v>9.538607264403254e-05</v>
+        <v>0.0006372425705194473</v>
       </c>
       <c r="CO9" t="n">
-        <v>8.997064287541434e-05</v>
+        <v>0.001221940503455698</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.376979293534532e-05</v>
+        <v>0.001661690883338451</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.337945938459598e-06</v>
+        <v>0.0005664691561833024</v>
       </c>
       <c r="CR9" t="n">
-        <v>4.479359631659463e-05</v>
+        <v>0.002188141457736492</v>
       </c>
       <c r="CS9" t="n">
-        <v>3.35165714204777e-06</v>
+        <v>0.001247600768692791</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0001131657045334578</v>
+        <v>0.001330411643721163</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0001279358693864197</v>
+        <v>0.001197717385366559</v>
       </c>
       <c r="CV9" t="n">
-        <v>8.314209117088467e-05</v>
+        <v>0.0005436779465526342</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.0001757755817379802</v>
+        <v>0.001578566036187112</v>
       </c>
       <c r="CX9" t="n">
-        <v>2.297042374266312e-05</v>
+        <v>0.000543614907655865</v>
       </c>
       <c r="CY9" t="n">
-        <v>3.394261148059741e-05</v>
+        <v>0.0007365939673036337</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0001450599229428917</v>
+        <v>0.0003524433122947812</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0001018610419123434</v>
+        <v>0.0009357305243611336</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.998280276893638e-05</v>
+        <v>0.0005456616054289043</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.55389352585189e-05</v>
+        <v>0.0003168837283737957</v>
       </c>
       <c r="DD9" t="n">
-        <v>8.671753312228248e-05</v>
+        <v>0.0001173125492641702</v>
       </c>
       <c r="DE9" t="n">
-        <v>5.422542017186061e-05</v>
+        <v>0.001070677302777767</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0001297004346270114</v>
+        <v>0.001190796494483948</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0003934169944841415</v>
+        <v>0.0003844320017378777</v>
       </c>
       <c r="DH9" t="n">
-        <v>6.55560870654881e-05</v>
+        <v>0.0002268846146762371</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0001521100493846461</v>
+        <v>0.003803701605647802</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0002889427123591304</v>
+        <v>0.0002785795950330794</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0003563592035789043</v>
+        <v>0.001983416266739368</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.945937740150839e-05</v>
+        <v>0.0007713079685345292</v>
       </c>
       <c r="DM9" t="n">
-        <v>4.87214456370566e-05</v>
+        <v>0.00225770752876997</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0001036794928950258</v>
+        <v>0.001358180888928473</v>
       </c>
       <c r="DO9" t="n">
-        <v>2.883667548303492e-05</v>
+        <v>0.0005458922823891044</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0001768069341778755</v>
+        <v>0.0009954945417121053</v>
       </c>
       <c r="DQ9" t="n">
-        <v>5.260766192805022e-05</v>
+        <v>0.001703733345493674</v>
       </c>
       <c r="DR9" t="n">
-        <v>8.924691064748913e-05</v>
+        <v>0.0007230310584418476</v>
       </c>
       <c r="DS9" t="n">
-        <v>8.801204785413574e-06</v>
+        <v>0.000955849071033299</v>
       </c>
       <c r="DT9" t="n">
-        <v>8.81955202203244e-06</v>
+        <v>0.001151244738139212</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.430235352017917e-05</v>
+        <v>0.0006484079640358686</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.837819556589238e-05</v>
+        <v>0.0006892671808600426</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.0001012104767141864</v>
+        <v>0.0007011451525613666</v>
       </c>
       <c r="DX9" t="n">
-        <v>3.354512591613457e-05</v>
+        <v>0.0001494500029366463</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.525457239244133e-05</v>
+        <v>0.002493670675903559</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3.721741086337715e-05</v>
+        <v>0.001039473339915276</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0001661444548517466</v>
+        <v>0.001296003232710063</v>
       </c>
       <c r="EB9" t="n">
-        <v>2.161784323106986e-05</v>
+        <v>0.0008461355464532971</v>
       </c>
       <c r="EC9" t="n">
-        <v>8.822288509691134e-05</v>
+        <v>2.814815161400475e-05</v>
       </c>
       <c r="ED9" t="n">
-        <v>4.469481791602448e-05</v>
+        <v>0.000781796989031136</v>
       </c>
       <c r="EE9" t="n">
-        <v>2.079022306133993e-05</v>
+        <v>0.0008076783269643784</v>
       </c>
       <c r="EF9" t="n">
-        <v>7.752291276119649e-05</v>
+        <v>0.0004442026547621936</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.0002743540972005576</v>
+        <v>0.000862141780089587</v>
       </c>
       <c r="EH9" t="n">
-        <v>5.417276770458557e-05</v>
+        <v>0.0002737515605986118</v>
       </c>
       <c r="EI9" t="n">
-        <v>2.963600854855031e-05</v>
+        <v>0.0009496908751316369</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0001386000803904608</v>
+        <v>0.0003754555364139378</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.0001877370086731389</v>
+        <v>0.0003428092750255018</v>
       </c>
       <c r="EL9" t="n">
-        <v>4.970455847796984e-05</v>
+        <v>0.0008542544092051685</v>
       </c>
       <c r="EM9" t="n">
-        <v>3.041642776224762e-05</v>
+        <v>4.293242091080174e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.0001081309383152984</v>
+        <v>0.0001296390692004934</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.0001148164228652604</v>
+        <v>0.001085003255866468</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.0001963283866643906</v>
+        <v>0.001255032606422901</v>
       </c>
       <c r="EQ9" t="n">
-        <v>9.161133675661404e-06</v>
+        <v>0.0003928244404960424</v>
       </c>
       <c r="ER9" t="n">
-        <v>4.84614065499045e-05</v>
+        <v>0.0002076330274576321</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.609886905702297e-05</v>
+        <v>0.0002933899813797325</v>
       </c>
       <c r="ET9" t="n">
-        <v>4.03969461331144e-05</v>
+        <v>0.002346933353692293</v>
       </c>
       <c r="EU9" t="n">
-        <v>7.286367326742038e-05</v>
+        <v>0.001108619151636958</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.581651667947881e-05</v>
+        <v>0.002605162793770432</v>
       </c>
       <c r="EW9" t="n">
-        <v>6.068904986022972e-05</v>
+        <v>0.0004437769530341029</v>
       </c>
       <c r="EX9" t="n">
-        <v>8.58466955833137e-05</v>
+        <v>0.0004686173924710602</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.0001678952248767018</v>
+        <v>0.001608923310413957</v>
       </c>
       <c r="EZ9" t="n">
-        <v>3.38412392011378e-05</v>
+        <v>9.448238415643573e-06</v>
       </c>
       <c r="FA9" t="n">
-        <v>7.067264232318848e-05</v>
+        <v>0.000302627042401582</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0001262548612430692</v>
+        <v>0.0003477452555671334</v>
       </c>
       <c r="FC9" t="n">
-        <v>8.262765186373144e-05</v>
+        <v>0.001058947644196451</v>
       </c>
       <c r="FD9" t="n">
-        <v>3.635152779679629e-06</v>
+        <v>0.0005255797877907753</v>
       </c>
       <c r="FE9" t="n">
-        <v>4.095423264516285e-06</v>
+        <v>0.000241115121752955</v>
       </c>
       <c r="FF9" t="n">
-        <v>8.168168278643861e-05</v>
+        <v>0.0004585124552249908</v>
       </c>
       <c r="FG9" t="n">
-        <v>8.998734119813889e-05</v>
+        <v>0.0002929235342890024</v>
       </c>
       <c r="FH9" t="n">
-        <v>6.15261888015084e-05</v>
+        <v>0.001010682317428291</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.0001072530940291472</v>
+        <v>0.001048543723300099</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.000136655435198918</v>
+        <v>0.001287188613787293</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.537865136924665e-05</v>
+        <v>0.0003076055727433413</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.39700568979606e-05</v>
+        <v>0.0001363101328024641</v>
       </c>
       <c r="FM9" t="n">
-        <v>6.084628694225103e-06</v>
+        <v>0.0002336399920750409</v>
       </c>
       <c r="FN9" t="n">
-        <v>6.245636177482083e-05</v>
+        <v>0.0005165842012502253</v>
       </c>
       <c r="FO9" t="n">
-        <v>3.551868758222554e-06</v>
+        <v>0.0009368159808218479</v>
       </c>
       <c r="FP9" t="n">
-        <v>2.046506779151969e-05</v>
+        <v>0.001471338095143437</v>
       </c>
       <c r="FQ9" t="n">
-        <v>8.633924153400585e-06</v>
+        <v>0.001208400819450617</v>
       </c>
       <c r="FR9" t="n">
-        <v>3.802868377533741e-05</v>
+        <v>0.00214868993498385</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0001795280259102583</v>
+        <v>0.0004516241606324911</v>
       </c>
       <c r="FT9" t="n">
-        <v>3.059162736462895e-07</v>
+        <v>0.002919914200901985</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.518062254035613e-05</v>
+        <v>0.002734736073762178</v>
       </c>
       <c r="FV9" t="n">
-        <v>4.417834861669689e-05</v>
+        <v>0.001555460854433477</v>
       </c>
       <c r="FW9" t="n">
-        <v>4.375033313408494e-07</v>
+        <v>0.0008556842803955078</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.000115437971544452</v>
+        <v>0.0006047050701454282</v>
       </c>
       <c r="FY9" t="n">
-        <v>3.809383633779362e-05</v>
+        <v>0.0009483186295256019</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.0001668733020778745</v>
+        <v>0.00116607453674078</v>
       </c>
       <c r="GA9" t="n">
-        <v>8.790921856416389e-05</v>
+        <v>0.0003993873833678663</v>
       </c>
       <c r="GB9" t="n">
-        <v>9.909727668855339e-05</v>
+        <v>0.00141393207013607</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.908419992309064e-05</v>
+        <v>0.0002842685207724571</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.780406091711484e-05</v>
+        <v>0.0009903607424348593</v>
       </c>
       <c r="GE9" t="n">
-        <v>5.24072784173768e-05</v>
+        <v>0.001458918442949653</v>
       </c>
       <c r="GF9" t="n">
-        <v>5.552582297241315e-05</v>
+        <v>0.0004055703175254166</v>
       </c>
       <c r="GG9" t="n">
-        <v>9.982026313082315e-06</v>
+        <v>0.0004026203532703221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.301994757341163e-06</v>
+        <v>0.00223468616604805</v>
       </c>
       <c r="B10" t="n">
-        <v>7.624576028320007e-07</v>
+        <v>0.02058927714824677</v>
       </c>
       <c r="C10" t="n">
-        <v>6.123268576629926e-06</v>
+        <v>0.001972401514649391</v>
       </c>
       <c r="D10" t="n">
-        <v>1.204006139232661e-06</v>
+        <v>0.01136930380016565</v>
       </c>
       <c r="E10" t="n">
-        <v>4.389262358017731e-06</v>
+        <v>0.001892404863610864</v>
       </c>
       <c r="F10" t="n">
-        <v>1.880173954305064e-07</v>
+        <v>0.005132630933076143</v>
       </c>
       <c r="G10" t="n">
-        <v>1.193695879919687e-06</v>
+        <v>0.001911272411234677</v>
       </c>
       <c r="H10" t="n">
-        <v>8.835382345750986e-07</v>
+        <v>0.001576477778144181</v>
       </c>
       <c r="I10" t="n">
-        <v>4.963178525940748e-06</v>
+        <v>0.002102605532854795</v>
       </c>
       <c r="J10" t="n">
-        <v>2.316736242846673e-07</v>
+        <v>0.003753960132598877</v>
       </c>
       <c r="K10" t="n">
-        <v>9.070001283362217e-07</v>
+        <v>0.0147222587838769</v>
       </c>
       <c r="L10" t="n">
-        <v>6.646717338298913e-06</v>
+        <v>0.0001536765339551494</v>
       </c>
       <c r="M10" t="n">
-        <v>5.505356739377021e-07</v>
+        <v>0.01087088976055384</v>
       </c>
       <c r="N10" t="n">
-        <v>2.840034085238585e-06</v>
+        <v>0.004080173093825579</v>
       </c>
       <c r="O10" t="n">
-        <v>7.811215709807584e-07</v>
+        <v>0.007181307766586542</v>
       </c>
       <c r="P10" t="n">
-        <v>7.162457222875673e-07</v>
+        <v>0.001607812126167119</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78240850345901e-06</v>
+        <v>0.0009828237816691399</v>
       </c>
       <c r="R10" t="n">
-        <v>5.504644377651857e-06</v>
+        <v>0.001988774398341775</v>
       </c>
       <c r="S10" t="n">
-        <v>8.664107298272938e-08</v>
+        <v>0.0007937566842883825</v>
       </c>
       <c r="T10" t="n">
-        <v>2.006031991186319e-06</v>
+        <v>0.002105127321556211</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48053709128726e-07</v>
+        <v>0.0009952422697097063</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72544594079227e-06</v>
+        <v>0.002181557007133961</v>
       </c>
       <c r="W10" t="n">
-        <v>6.577967042176169e-07</v>
+        <v>0.001715760445222259</v>
       </c>
       <c r="X10" t="n">
-        <v>4.549663756847622e-08</v>
+        <v>0.001064579817466438</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.242475088427454e-07</v>
+        <v>0.002202722709625959</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.169780716736568e-06</v>
+        <v>0.00178762583527714</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.444015525630675e-07</v>
+        <v>0.001192739349789917</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.834677050283062e-07</v>
+        <v>0.0009317158255726099</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.173446192609845e-08</v>
+        <v>0.003121329704299569</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.593411636553355e-07</v>
+        <v>0.0001707920455373824</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.195078986413137e-07</v>
+        <v>6.67217536829412e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.76886520775588e-07</v>
+        <v>0.0002437480725347996</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.420254064527398e-07</v>
+        <v>0.0001664870942477137</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.023887191171525e-08</v>
+        <v>0.000726912054233253</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.500116695751785e-06</v>
+        <v>0.0002001427346840501</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.221833028670517e-06</v>
+        <v>0.000827317766379565</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.673715388506025e-09</v>
+        <v>0.00175955577287823</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.568601192047936e-06</v>
+        <v>0.00197385810315609</v>
       </c>
       <c r="AM10" t="n">
-        <v>7.054549087115447e-07</v>
+        <v>0.0003776566300075501</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.497893423329515e-07</v>
+        <v>0.0008244746131822467</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.300437422306459e-09</v>
+        <v>0.0019312200602144</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.559799102324178e-06</v>
+        <v>0.002157277194783092</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.103575980072492e-07</v>
+        <v>0.0007477683247998357</v>
       </c>
       <c r="AR10" t="n">
-        <v>5.070462520961883e-07</v>
+        <v>0.001542814774438739</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.56495320374961e-07</v>
+        <v>0.001326105208136141</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.1914837614313e-06</v>
+        <v>0.001260609249584377</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.110201651499665e-06</v>
+        <v>0.0152748841792345</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.082439772901125e-06</v>
+        <v>0.0002371010341448709</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.739641094100079e-07</v>
+        <v>0.003201690735295415</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.452582978345163e-06</v>
+        <v>0.001233664690516889</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.508617510306067e-06</v>
+        <v>0.0003196292382199317</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7.030809001662419e-08</v>
+        <v>0.0006129284738563001</v>
       </c>
       <c r="BA10" t="n">
-        <v>6.366790898937325e-07</v>
+        <v>0.0004616368096321821</v>
       </c>
       <c r="BB10" t="n">
-        <v>9.008344932226464e-07</v>
+        <v>0.001768186106346548</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.701265865492132e-08</v>
+        <v>0.0007099382928572595</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.98188967412716e-07</v>
+        <v>0.004062262363731861</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.711865934339585e-06</v>
+        <v>0.004404742736369371</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.887749417368468e-07</v>
+        <v>0.001948613673448563</v>
       </c>
       <c r="BG10" t="n">
-        <v>5.382646008911252e-07</v>
+        <v>0.004059050232172012</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.001737132355629e-06</v>
+        <v>0.003730748547241092</v>
       </c>
       <c r="BI10" t="n">
-        <v>6.658939355475013e-07</v>
+        <v>0.002532484941184521</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7.251235274452483e-07</v>
+        <v>0.001043431228026748</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.125319613493048e-06</v>
+        <v>0.001204878673888743</v>
       </c>
       <c r="BL10" t="n">
-        <v>3.346109167523537e-08</v>
+        <v>0.001983995549380779</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.703940538140159e-08</v>
+        <v>0.003317656693980098</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.883190066109819e-06</v>
+        <v>0.001686358358711004</v>
       </c>
       <c r="BO10" t="n">
-        <v>5.732630370403058e-07</v>
+        <v>0.0007874318398535252</v>
       </c>
       <c r="BP10" t="n">
-        <v>7.424090426866314e-07</v>
+        <v>0.002588518662378192</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.445556219754508e-07</v>
+        <v>0.001378883025608957</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.720701104408363e-07</v>
+        <v>0.0003123088681604713</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.296225491387304e-06</v>
+        <v>6.998289609327912e-05</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.213630071106309e-06</v>
+        <v>0.000801857269834727</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.932442271230684e-07</v>
+        <v>0.001454198500141501</v>
       </c>
       <c r="BV10" t="n">
-        <v>5.472290922625689e-07</v>
+        <v>0.007264583837240934</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.506343892287987e-06</v>
+        <v>0.001940574031323195</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.224273773914319e-06</v>
+        <v>0.002053624950349331</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.633663714528666e-06</v>
+        <v>0.000219426307012327</v>
       </c>
       <c r="BZ10" t="n">
-        <v>6.37116670532123e-07</v>
+        <v>0.00281706708483398</v>
       </c>
       <c r="CA10" t="n">
-        <v>4.427181465871399e-07</v>
+        <v>0.0005909667233936489</v>
       </c>
       <c r="CB10" t="n">
-        <v>4.26753672400082e-08</v>
+        <v>0.001408968819305301</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.125591208823607e-06</v>
+        <v>0.001437680446542799</v>
       </c>
       <c r="CD10" t="n">
-        <v>2.359564064136066e-07</v>
+        <v>0.001018827315419912</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.044234977598535e-06</v>
+        <v>0.003268859349191189</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.222522769239731e-06</v>
+        <v>0.001510664820671082</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.648210457005916e-07</v>
+        <v>0.001122622634284198</v>
       </c>
       <c r="CH10" t="n">
-        <v>9.668442544352729e-07</v>
+        <v>0.0006207629921846092</v>
       </c>
       <c r="CI10" t="n">
-        <v>4.975595402356703e-07</v>
+        <v>0.001269145403057337</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3.126444170220566e-08</v>
+        <v>0.0007738065905869007</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.509199248379446e-08</v>
+        <v>7.068164995871484e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>6.196115123202617e-07</v>
+        <v>0.0004044844827149063</v>
       </c>
       <c r="CM10" t="n">
-        <v>2.330580173293129e-09</v>
+        <v>0.002922030165791512</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.366966782574309e-06</v>
+        <v>0.001562422490678728</v>
       </c>
       <c r="CO10" t="n">
-        <v>5.599396217803587e-07</v>
+        <v>0.0009674502070993185</v>
       </c>
       <c r="CP10" t="n">
-        <v>4.647187097361893e-07</v>
+        <v>0.003066081088036299</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.498384278875164e-07</v>
+        <v>0.002131226239725947</v>
       </c>
       <c r="CR10" t="n">
-        <v>9.427142799722787e-08</v>
+        <v>0.001734055578708649</v>
       </c>
       <c r="CS10" t="n">
-        <v>7.319000872030301e-08</v>
+        <v>0.0022764066234231</v>
       </c>
       <c r="CT10" t="n">
-        <v>6.612557967855537e-08</v>
+        <v>0.004081904888153076</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.582457230142609e-06</v>
+        <v>0.000340344849973917</v>
       </c>
       <c r="CV10" t="n">
-        <v>3.052442139050981e-07</v>
+        <v>0.0008172590751200914</v>
       </c>
       <c r="CW10" t="n">
-        <v>8.466938652418321e-07</v>
+        <v>0.002572766272351146</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.026880568133492e-06</v>
+        <v>0.001819846220314503</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.840099201899648e-07</v>
+        <v>0.001958199543878436</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.449259116270696e-06</v>
+        <v>0.0005522726569324732</v>
       </c>
       <c r="DA10" t="n">
-        <v>5.589917009274359e-07</v>
+        <v>0.001244521932676435</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.787235675010379e-07</v>
+        <v>0.0006360188126564026</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.193621557149527e-07</v>
+        <v>0.0002061033446807414</v>
       </c>
       <c r="DD10" t="n">
-        <v>8.795334451860981e-07</v>
+        <v>0.0001076142361853272</v>
       </c>
       <c r="DE10" t="n">
-        <v>3.708014446601737e-07</v>
+        <v>0.001732780248858035</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.501849737906014e-06</v>
+        <v>0.001681673107668757</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.850124817792675e-06</v>
+        <v>0.001507982378825545</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.01543957953254e-06</v>
+        <v>0.00579746812582016</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.084899932697226e-07</v>
+        <v>0.001182794105261564</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.427922313723684e-07</v>
+        <v>0.0004858293978031725</v>
       </c>
       <c r="DK10" t="n">
-        <v>2.095970330628916e-06</v>
+        <v>0.00172003114130348</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.613562616853415e-08</v>
+        <v>0.0003363981668371707</v>
       </c>
       <c r="DM10" t="n">
-        <v>9.947841590474127e-07</v>
+        <v>2.072699135169387e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>3.580746010811708e-07</v>
+        <v>0.001950889243744314</v>
       </c>
       <c r="DO10" t="n">
-        <v>6.691058160868124e-07</v>
+        <v>0.0009560424950905144</v>
       </c>
       <c r="DP10" t="n">
-        <v>4.343217483437911e-07</v>
+        <v>0.001415979000739753</v>
       </c>
       <c r="DQ10" t="n">
-        <v>6.679749731119955e-07</v>
+        <v>3.192479925928637e-05</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.36755389235077e-08</v>
+        <v>0.001093819504603744</v>
       </c>
       <c r="DS10" t="n">
-        <v>5.080002551949292e-07</v>
+        <v>0.001428557676263154</v>
       </c>
       <c r="DT10" t="n">
-        <v>4.434863569713343e-07</v>
+        <v>0.0001334748085355386</v>
       </c>
       <c r="DU10" t="n">
-        <v>3.042391085728013e-07</v>
+        <v>0.0007309550419449806</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.107647449316573e-06</v>
+        <v>0.0009820502018555999</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.118297572906158e-07</v>
+        <v>7.763292524032295e-05</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.320631319387758e-08</v>
+        <v>0.0001416062004864216</v>
       </c>
       <c r="DY10" t="n">
-        <v>7.679594773435383e-07</v>
+        <v>0.00269233132712543</v>
       </c>
       <c r="DZ10" t="n">
-        <v>5.594566232502984e-08</v>
+        <v>6.751778710167855e-05</v>
       </c>
       <c r="EA10" t="n">
-        <v>8.851498023432214e-07</v>
+        <v>0.002448404207825661</v>
       </c>
       <c r="EB10" t="n">
-        <v>5.190399292587244e-07</v>
+        <v>0.0009410835336893797</v>
       </c>
       <c r="EC10" t="n">
-        <v>2.019882856529875e-07</v>
+        <v>0.0009363579447381198</v>
       </c>
       <c r="ED10" t="n">
-        <v>3.065441092076071e-07</v>
+        <v>0.0004823558265343308</v>
       </c>
       <c r="EE10" t="n">
-        <v>4.331977550009469e-07</v>
+        <v>0.0002274999424116686</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.037570669382148e-07</v>
+        <v>4.824780626222491e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>7.994174211489735e-07</v>
+        <v>0.002233312930911779</v>
       </c>
       <c r="EH10" t="n">
-        <v>9.60201873567712e-07</v>
+        <v>0.0007208381430245936</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.019605520014011e-07</v>
+        <v>0.001802363200113177</v>
       </c>
       <c r="EJ10" t="n">
-        <v>5.00131648095703e-07</v>
+        <v>0.0005603397730737925</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.28314741232316e-06</v>
+        <v>0.0009781557600945234</v>
       </c>
       <c r="EL10" t="n">
-        <v>6.610069931411999e-07</v>
+        <v>0.0006617562612518668</v>
       </c>
       <c r="EM10" t="n">
-        <v>8.185062938537158e-07</v>
+        <v>0.0001631030754651874</v>
       </c>
       <c r="EN10" t="n">
-        <v>3.132452093268512e-07</v>
+        <v>2.213998232036829e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>7.129953587536875e-07</v>
+        <v>0.001008722698315978</v>
       </c>
       <c r="EP10" t="n">
-        <v>9.213544558406284e-07</v>
+        <v>0.002200980903580785</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.253758850656595e-07</v>
+        <v>0.0006847299518994987</v>
       </c>
       <c r="ER10" t="n">
-        <v>7.3717581017263e-07</v>
+        <v>0.001581901335157454</v>
       </c>
       <c r="ES10" t="n">
-        <v>5.623585934699804e-07</v>
+        <v>0.0009122532210312784</v>
       </c>
       <c r="ET10" t="n">
-        <v>5.305178660819365e-07</v>
+        <v>0.005261373706161976</v>
       </c>
       <c r="EU10" t="n">
-        <v>6.61710203075927e-07</v>
+        <v>0.001612116117030382</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.965611318155425e-08</v>
+        <v>0.001920360373333097</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.205496801048866e-06</v>
+        <v>0.0007630140753462911</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.11731161211992e-07</v>
+        <v>0.0004573640180751681</v>
       </c>
       <c r="EY10" t="n">
-        <v>9.229246415998205e-07</v>
+        <v>0.002477304078638554</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.18752586786286e-06</v>
+        <v>0.001001446973532438</v>
       </c>
       <c r="FA10" t="n">
-        <v>2.452447578349393e-09</v>
+        <v>0.001575889415107667</v>
       </c>
       <c r="FB10" t="n">
-        <v>8.478582458337769e-07</v>
+        <v>0.0003180971543770283</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.352662136217987e-07</v>
+        <v>0.001492761308327317</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.964274076726724e-07</v>
+        <v>0.0009665148099884391</v>
       </c>
       <c r="FE10" t="n">
-        <v>2.732552673023747e-07</v>
+        <v>3.40428960043937e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.082403059626813e-06</v>
+        <v>0.0004503274103626609</v>
       </c>
       <c r="FG10" t="n">
-        <v>2.845780500138062e-09</v>
+        <v>0.0001186553272418678</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.33255605053273e-07</v>
+        <v>0.0006234832690097392</v>
       </c>
       <c r="FI10" t="n">
-        <v>3.39687574069103e-07</v>
+        <v>0.0005443256814032793</v>
       </c>
       <c r="FJ10" t="n">
-        <v>6.625779747082561e-07</v>
+        <v>0.001879088464193046</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.009284460451454e-06</v>
+        <v>0.0008837039931677282</v>
       </c>
       <c r="FL10" t="n">
-        <v>1.005042165047598e-07</v>
+        <v>4.128219734411687e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>2.582369234005455e-07</v>
+        <v>0.001003808109089732</v>
       </c>
       <c r="FN10" t="n">
-        <v>7.486649451493577e-07</v>
+        <v>0.0007389423553831875</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.240685492120974e-06</v>
+        <v>0.0008027732837945223</v>
       </c>
       <c r="FP10" t="n">
-        <v>5.425143001502875e-09</v>
+        <v>0.001364748924970627</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.86903594112664e-06</v>
+        <v>0.001738214399665594</v>
       </c>
       <c r="FR10" t="n">
-        <v>3.064814961817319e-07</v>
+        <v>0.00070715177571401</v>
       </c>
       <c r="FS10" t="n">
-        <v>3.95237634620571e-07</v>
+        <v>0.00148610700853169</v>
       </c>
       <c r="FT10" t="n">
-        <v>2.421468252578052e-07</v>
+        <v>0.001191010582260787</v>
       </c>
       <c r="FU10" t="n">
-        <v>1.565309446505125e-07</v>
+        <v>0.0003082117182202637</v>
       </c>
       <c r="FV10" t="n">
-        <v>5.66950177471881e-07</v>
+        <v>0.001036991365253925</v>
       </c>
       <c r="FW10" t="n">
-        <v>7.001739277257002e-07</v>
+        <v>0.0002614593249745667</v>
       </c>
       <c r="FX10" t="n">
-        <v>2.252783275480397e-07</v>
+        <v>0.001256020739674568</v>
       </c>
       <c r="FY10" t="n">
-        <v>4.162243385508191e-07</v>
+        <v>0.002219863003119826</v>
       </c>
       <c r="FZ10" t="n">
-        <v>8.786713578956551e-07</v>
+        <v>0.0009940678719431162</v>
       </c>
       <c r="GA10" t="n">
-        <v>2.551942941408925e-07</v>
+        <v>0.0009871629299595952</v>
       </c>
       <c r="GB10" t="n">
-        <v>8.888893034963985e-07</v>
+        <v>0.0007021540659479797</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.677557435186827e-07</v>
+        <v>2.596992999315262e-06</v>
       </c>
       <c r="GD10" t="n">
-        <v>1.528458710708946e-06</v>
+        <v>0.00144477910362184</v>
       </c>
       <c r="GE10" t="n">
-        <v>2.310366085112037e-07</v>
+        <v>0.005043922923505306</v>
       </c>
       <c r="GF10" t="n">
-        <v>9.230251976077852e-07</v>
+        <v>0.0009373226203024387</v>
       </c>
       <c r="GG10" t="n">
-        <v>6.220455475158815e-07</v>
+        <v>0.0003499668382573873</v>
       </c>
     </row>
     <row r="11">
@@ -6694,1709 +6694,1709 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.615831246581934e-09</v>
+        <v>6.535396668283511e-09</v>
       </c>
       <c r="B12" t="n">
-        <v>1.400758620206943e-09</v>
+        <v>3.916667878911539e-08</v>
       </c>
       <c r="C12" t="n">
-        <v>1.552820627637175e-08</v>
+        <v>3.277594418094054e-09</v>
       </c>
       <c r="D12" t="n">
-        <v>2.771457507932951e-10</v>
+        <v>8.338776069649612e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>7.771337351414331e-09</v>
+        <v>9.770117159746405e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>4.933776942550594e-09</v>
+        <v>2.832260204144177e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>5.234743749582549e-10</v>
+        <v>6.261750229441532e-09</v>
       </c>
       <c r="H12" t="n">
-        <v>5.362038035805483e-10</v>
+        <v>9.756861985010801e-11</v>
       </c>
       <c r="I12" t="n">
-        <v>1.437571306439622e-08</v>
+        <v>3.525455261055299e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>7.53270557041219e-10</v>
+        <v>1.742420607797612e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>4.844095125022818e-10</v>
+        <v>2.218724759472934e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>1.609956434833748e-08</v>
+        <v>9.186259530835628e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>7.907723365008223e-10</v>
+        <v>4.62286848801341e-08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.115559366051457e-09</v>
+        <v>2.394298981300835e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>3.011423777010691e-09</v>
+        <v>1.726206200203251e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>7.510028710022709e-11</v>
+        <v>1.554797535163743e-08</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.491503056262673e-10</v>
+        <v>1.543623362465496e-08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.598189847129561e-08</v>
+        <v>1.649613778909043e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>2.233112139649052e-09</v>
+        <v>6.173621613925206e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>1.901935053894022e-09</v>
+        <v>8.737553791604569e-09</v>
       </c>
       <c r="U12" t="n">
-        <v>1.407632344019305e-09</v>
+        <v>4.729927560731539e-09</v>
       </c>
       <c r="V12" t="n">
-        <v>4.844820988836318e-09</v>
+        <v>3.938004144998786e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>2.63690247415127e-09</v>
+        <v>1.741357102957863e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>9.85124315455721e-10</v>
+        <v>9.594865346684855e-09</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.962953882246211e-09</v>
+        <v>2.688111067072896e-08</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.07152192569049e-09</v>
+        <v>1.186896581018004e-09</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.949357424952836e-09</v>
+        <v>8.995685085722016e-09</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.60182919548302e-10</v>
+        <v>9.505134457299391e-10</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.371284584829937e-09</v>
+        <v>5.960560933715442e-09</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.014316075576005e-09</v>
+        <v>4.410242837593614e-09</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.482745926040252e-09</v>
+        <v>1.118989967352491e-08</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.260092444421161e-10</v>
+        <v>1.844192709654635e-08</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.009198251164747e-10</v>
+        <v>7.483710540157062e-09</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.225162415963155e-09</v>
+        <v>6.338059410637698e-09</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.815527253678511e-09</v>
+        <v>1.987502384892537e-09</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4.890821081460217e-09</v>
+        <v>2.02295957762999e-09</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.560111372369335e-10</v>
+        <v>5.423371973733992e-09</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.323713139100846e-09</v>
+        <v>9.254801369706911e-09</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.287856126770293e-09</v>
+        <v>1.602716848125851e-10</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.244164105074219e-09</v>
+        <v>3.24930704564963e-09</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.442971298004636e-09</v>
+        <v>1.871978350109771e-09</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.006420972757496e-09</v>
+        <v>5.700260707897087e-09</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6.798405727259649e-10</v>
+        <v>8.984490484920116e-09</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.429130702668147e-09</v>
+        <v>5.226086674525732e-09</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.135181724291726e-10</v>
+        <v>7.991682871022476e-09</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.196585549706924e-10</v>
+        <v>3.370145718051276e-09</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.322986885656576e-10</v>
+        <v>2.226127904236819e-08</v>
       </c>
       <c r="AV12" t="n">
-        <v>8.203720369692746e-09</v>
+        <v>2.922145192485459e-09</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.978373434662899e-11</v>
+        <v>4.116779805940496e-08</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.050826397592687e-09</v>
+        <v>7.022667780631764e-09</v>
       </c>
       <c r="AY12" t="n">
-        <v>5.695904192748458e-09</v>
+        <v>8.231245018919253e-09</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.273029819921391e-10</v>
+        <v>4.69299044070226e-09</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.330207138356855e-09</v>
+        <v>4.931414387954192e-09</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.605506033148686e-09</v>
+        <v>1.51955088512068e-08</v>
       </c>
       <c r="BC12" t="n">
-        <v>2.541568067115918e-10</v>
+        <v>3.221332534053545e-09</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.389163367671031e-10</v>
+        <v>8.126952444342805e-10</v>
       </c>
       <c r="BE12" t="n">
-        <v>6.154191822815847e-09</v>
+        <v>5.406036951427495e-09</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.054846099357576e-09</v>
+        <v>6.562361765105607e-09</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.048846898221711e-09</v>
+        <v>1.94665066288735e-08</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.581521219013894e-09</v>
+        <v>6.572584698716355e-09</v>
       </c>
       <c r="BI12" t="n">
-        <v>2.371902674269677e-11</v>
+        <v>1.807301508449655e-08</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.12456607862066e-09</v>
+        <v>2.607230698004059e-08</v>
       </c>
       <c r="BK12" t="n">
-        <v>4.382999740926152e-09</v>
+        <v>1.846137465122411e-09</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.093310220134924e-09</v>
+        <v>2.085216443958871e-10</v>
       </c>
       <c r="BM12" t="n">
-        <v>7.50141615490918e-10</v>
+        <v>1.85557305631967e-10</v>
       </c>
       <c r="BN12" t="n">
-        <v>4.733562875003372e-09</v>
+        <v>1.395721671570982e-08</v>
       </c>
       <c r="BO12" t="n">
-        <v>6.874192326478124e-10</v>
+        <v>6.713088307463977e-09</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.971984436328512e-09</v>
+        <v>5.397110314220299e-09</v>
       </c>
       <c r="BQ12" t="n">
-        <v>2.099794560450619e-09</v>
+        <v>6.254833984087327e-09</v>
       </c>
       <c r="BR12" t="n">
-        <v>8.823713981698234e-10</v>
+        <v>8.694394537656081e-09</v>
       </c>
       <c r="BS12" t="n">
-        <v>2.297080525792694e-09</v>
+        <v>1.440539243446892e-09</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.88563542558029e-09</v>
+        <v>3.241270363218973e-09</v>
       </c>
       <c r="BU12" t="n">
-        <v>7.629299414446677e-10</v>
+        <v>4.652796370407941e-09</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.41863687463939e-09</v>
+        <v>1.325841925137183e-08</v>
       </c>
       <c r="BW12" t="n">
-        <v>3.047364582897671e-09</v>
+        <v>8.877462320810992e-09</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.280134442893655e-09</v>
+        <v>1.707161167985305e-08</v>
       </c>
       <c r="BY12" t="n">
-        <v>3.376381396691386e-09</v>
+        <v>1.117208903167466e-08</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.931060505417804e-09</v>
+        <v>1.802139104611911e-09</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.249431669236856e-10</v>
+        <v>1.039499863964011e-08</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.817762940170553e-09</v>
+        <v>4.295003463994362e-09</v>
       </c>
       <c r="CC12" t="n">
-        <v>6.072077063379311e-09</v>
+        <v>1.113488590220868e-08</v>
       </c>
       <c r="CD12" t="n">
-        <v>1.196394538993673e-09</v>
+        <v>4.182063306767958e-10</v>
       </c>
       <c r="CE12" t="n">
-        <v>2.038853308405919e-09</v>
+        <v>7.139281610335502e-09</v>
       </c>
       <c r="CF12" t="n">
-        <v>2.635917928373033e-09</v>
+        <v>9.629346209294454e-09</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.616207723209584e-10</v>
+        <v>8.86292550461576e-09</v>
       </c>
       <c r="CH12" t="n">
-        <v>2.315121871987458e-09</v>
+        <v>4.044317769569261e-09</v>
       </c>
       <c r="CI12" t="n">
-        <v>2.450371461293344e-09</v>
+        <v>3.370802525992644e-10</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.161088114542963e-09</v>
+        <v>6.482820502640152e-09</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.32895727545224e-10</v>
+        <v>3.018583605296499e-09</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.925162473881414e-09</v>
+        <v>7.952315250747688e-09</v>
       </c>
       <c r="CM12" t="n">
-        <v>3.228579847913693e-09</v>
+        <v>1.34346951341513e-08</v>
       </c>
       <c r="CN12" t="n">
-        <v>7.516996802792164e-09</v>
+        <v>9.87972192945108e-09</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.083590411317005e-09</v>
+        <v>2.24169260931717e-09</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.527856895502168e-10</v>
+        <v>1.531935645004978e-08</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.223370903526757e-09</v>
+        <v>4.342773252119514e-09</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.115525893879976e-09</v>
+        <v>6.802157503926765e-09</v>
       </c>
       <c r="CS12" t="n">
-        <v>2.005552612871497e-09</v>
+        <v>6.281399400620558e-09</v>
       </c>
       <c r="CT12" t="n">
-        <v>4.739498377093199e-11</v>
+        <v>2.491550077365901e-08</v>
       </c>
       <c r="CU12" t="n">
-        <v>3.234051249023651e-09</v>
+        <v>8.578183496865677e-09</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.177971054033833e-09</v>
+        <v>2.386718045421787e-10</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.684325567907763e-09</v>
+        <v>6.596579726902974e-09</v>
       </c>
       <c r="CX12" t="n">
-        <v>2.779848351508463e-09</v>
+        <v>8.288521868848875e-09</v>
       </c>
       <c r="CY12" t="n">
-        <v>3.321981856263534e-10</v>
+        <v>1.440154218101952e-08</v>
       </c>
       <c r="CZ12" t="n">
-        <v>3.005615978324272e-09</v>
+        <v>5.497023281009206e-09</v>
       </c>
       <c r="DA12" t="n">
-        <v>2.815761179775222e-09</v>
+        <v>1.228731338898115e-09</v>
       </c>
       <c r="DB12" t="n">
-        <v>6.406556396498786e-10</v>
+        <v>5.350624388000824e-09</v>
       </c>
       <c r="DC12" t="n">
-        <v>2.502904827839103e-10</v>
+        <v>3.659299974145824e-09</v>
       </c>
       <c r="DD12" t="n">
-        <v>2.992216252550861e-09</v>
+        <v>6.183333400855417e-09</v>
       </c>
       <c r="DE12" t="n">
-        <v>3.474208476461627e-09</v>
+        <v>1.0775014658293e-08</v>
       </c>
       <c r="DF12" t="n">
-        <v>8.081319613495452e-09</v>
+        <v>5.474358744095298e-09</v>
       </c>
       <c r="DG12" t="n">
-        <v>5.611494380275417e-09</v>
+        <v>8.168307807920883e-09</v>
       </c>
       <c r="DH12" t="n">
-        <v>1.20620446963926e-09</v>
+        <v>5.369560440726673e-08</v>
       </c>
       <c r="DI12" t="n">
-        <v>2.310260205362624e-09</v>
+        <v>2.995139780637146e-08</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.582908026875884e-09</v>
+        <v>8.205033097397063e-09</v>
       </c>
       <c r="DK12" t="n">
-        <v>8.824336261703536e-10</v>
+        <v>1.393804005545007e-08</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.015298817241828e-10</v>
+        <v>2.89194961311523e-08</v>
       </c>
       <c r="DM12" t="n">
-        <v>1.673917338074205e-09</v>
+        <v>1.766388590951351e-09</v>
       </c>
       <c r="DN12" t="n">
-        <v>4.076952386800059e-10</v>
+        <v>1.29153487904432e-09</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.175855968149619e-09</v>
+        <v>3.370989265505386e-09</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.48762807627989e-10</v>
+        <v>1.252496417691873e-08</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.321218690009118e-09</v>
+        <v>8.518084904096668e-09</v>
       </c>
       <c r="DR12" t="n">
-        <v>8.256818007090772e-10</v>
+        <v>9.479363960451792e-09</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.025609375204795e-09</v>
+        <v>6.597256074769575e-09</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.805854910053029e-09</v>
+        <v>2.673178567391687e-09</v>
       </c>
       <c r="DU12" t="n">
-        <v>3.401229964339336e-09</v>
+        <v>9.999179262365487e-11</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.76271142127149e-09</v>
+        <v>1.227029944317337e-08</v>
       </c>
       <c r="DW12" t="n">
-        <v>5.310888950837978e-10</v>
+        <v>5.42514144719064e-10</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.177460906554018e-10</v>
+        <v>1.500385415909022e-08</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.525441994942867e-10</v>
+        <v>1.058895993111264e-08</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.359420909174958e-10</v>
+        <v>5.118709456297665e-09</v>
       </c>
       <c r="EA12" t="n">
-        <v>8.878150437041654e-10</v>
+        <v>1.933927862296514e-08</v>
       </c>
       <c r="EB12" t="n">
-        <v>2.158262457641058e-09</v>
+        <v>9.909178366740434e-09</v>
       </c>
       <c r="EC12" t="n">
-        <v>5.049662077372119e-11</v>
+        <v>5.801278346595495e-10</v>
       </c>
       <c r="ED12" t="n">
-        <v>5.333504124460653e-11</v>
+        <v>6.617701053812652e-09</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.480673694764789e-09</v>
+        <v>3.822097749406339e-09</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.627000090209663e-09</v>
+        <v>2.251196562497171e-09</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.222293821712128e-09</v>
+        <v>2.544841004592513e-09</v>
       </c>
       <c r="EH12" t="n">
-        <v>2.974654300658131e-09</v>
+        <v>7.555390091340541e-09</v>
       </c>
       <c r="EI12" t="n">
-        <v>2.120147390982652e-10</v>
+        <v>1.087370460339798e-08</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.229098156585451e-09</v>
+        <v>8.172563958908086e-09</v>
       </c>
       <c r="EK12" t="n">
-        <v>5.266732827635678e-09</v>
+        <v>1.192217990997335e-09</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.278850136898768e-09</v>
+        <v>1.044157293961234e-08</v>
       </c>
       <c r="EM12" t="n">
-        <v>1.468565602458227e-09</v>
+        <v>5.232945188282656e-09</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.587895814836315e-09</v>
+        <v>3.101655376980261e-09</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.57123758448563e-10</v>
+        <v>1.929155502011781e-09</v>
       </c>
       <c r="EP12" t="n">
-        <v>1.258983139962311e-09</v>
+        <v>1.520265469068249e-09</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.990734466161825e-09</v>
+        <v>8.930964412456888e-09</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.365361379512819e-09</v>
+        <v>5.219948917556394e-09</v>
       </c>
       <c r="ES12" t="n">
-        <v>1.145498584875781e-09</v>
+        <v>3.109011714741428e-08</v>
       </c>
       <c r="ET12" t="n">
-        <v>3.199921994045951e-10</v>
+        <v>1.414827033308086e-09</v>
       </c>
       <c r="EU12" t="n">
-        <v>9.895713137808571e-10</v>
+        <v>5.294975569114513e-09</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.481454070528798e-09</v>
+        <v>1.011757166935467e-08</v>
       </c>
       <c r="EW12" t="n">
-        <v>2.095817297487201e-09</v>
+        <v>1.214722655795697e-09</v>
       </c>
       <c r="EX12" t="n">
-        <v>1.384545145199922e-09</v>
+        <v>2.830510714701973e-09</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.794484227879423e-09</v>
+        <v>7.140719571196996e-09</v>
       </c>
       <c r="EZ12" t="n">
-        <v>2.781506580618043e-09</v>
+        <v>9.15638143084152e-09</v>
       </c>
       <c r="FA12" t="n">
-        <v>4.814630916172291e-10</v>
+        <v>1.328063170547011e-08</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.779328462347962e-09</v>
+        <v>3.746263299575503e-09</v>
       </c>
       <c r="FC12" t="n">
-        <v>2.186365755108e-09</v>
+        <v>1.798065030200746e-09</v>
       </c>
       <c r="FD12" t="n">
-        <v>8.160293551995323e-10</v>
+        <v>6.368741090057028e-09</v>
       </c>
       <c r="FE12" t="n">
-        <v>6.042866207423003e-10</v>
+        <v>3.892149713635717e-09</v>
       </c>
       <c r="FF12" t="n">
-        <v>3.210603560788172e-09</v>
+        <v>8.831781528328975e-09</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.880062772130486e-09</v>
+        <v>3.76081027431141e-10</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.03536965059925e-09</v>
+        <v>1.009874739388295e-09</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.74493308691126e-09</v>
+        <v>1.477609945510494e-08</v>
       </c>
       <c r="FJ12" t="n">
-        <v>7.186857775565159e-10</v>
+        <v>2.580113012129459e-08</v>
       </c>
       <c r="FK12" t="n">
-        <v>3.117286428988564e-09</v>
+        <v>6.542795194519613e-09</v>
       </c>
       <c r="FL12" t="n">
-        <v>3.369949042042464e-10</v>
+        <v>1.327971732578703e-09</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.336296184817343e-09</v>
+        <v>1.06169784075405e-08</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.77755787866829e-09</v>
+        <v>3.599592846015298e-09</v>
       </c>
       <c r="FO12" t="n">
-        <v>2.466344906082441e-09</v>
+        <v>7.479459718240378e-09</v>
       </c>
       <c r="FP12" t="n">
-        <v>9.660073851947004e-10</v>
+        <v>1.270426430721727e-08</v>
       </c>
       <c r="FQ12" t="n">
-        <v>4.220643834429438e-09</v>
+        <v>5.230844202230855e-09</v>
       </c>
       <c r="FR12" t="n">
-        <v>5.979739481354329e-10</v>
+        <v>2.710940139039053e-09</v>
       </c>
       <c r="FS12" t="n">
-        <v>9.672724843312608e-10</v>
+        <v>4.70063321600378e-10</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.755176364832579e-10</v>
+        <v>2.315757186011069e-08</v>
       </c>
       <c r="FU12" t="n">
-        <v>3.487563571269447e-09</v>
+        <v>2.829166678708361e-09</v>
       </c>
       <c r="FV12" t="n">
-        <v>1.194764287504313e-10</v>
+        <v>4.814568743682912e-09</v>
       </c>
       <c r="FW12" t="n">
-        <v>7.652440903171964e-10</v>
+        <v>7.694433534766176e-09</v>
       </c>
       <c r="FX12" t="n">
-        <v>4.979920642522728e-11</v>
+        <v>9.062694594774712e-09</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.444566688491022e-12</v>
+        <v>1.40075799848205e-08</v>
       </c>
       <c r="FZ12" t="n">
-        <v>1.607360688993253e-09</v>
+        <v>2.987786906771817e-09</v>
       </c>
       <c r="GA12" t="n">
-        <v>5.983279982579859e-10</v>
+        <v>1.510230718260175e-09</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.000956872942993e-09</v>
+        <v>2.844847468708167e-09</v>
       </c>
       <c r="GC12" t="n">
-        <v>2.173784346970464e-10</v>
+        <v>9.19044396141544e-09</v>
       </c>
       <c r="GD12" t="n">
-        <v>2.589791714413536e-09</v>
+        <v>8.911069104833302e-10</v>
       </c>
       <c r="GE12" t="n">
-        <v>1.556097917188026e-09</v>
+        <v>3.209366639111977e-08</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.707076147106079e-11</v>
+        <v>3.219865485348805e-09</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.587252551615848e-09</v>
+        <v>7.910312405101649e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001109155360609293</v>
+        <v>0.001459026359952986</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0003391633799765259</v>
+        <v>0.008742037229239941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0009311126195825636</v>
+        <v>0.0003348226600792259</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001523959450423717</v>
+        <v>0.005473760422319174</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002041266765445471</v>
+        <v>0.001571685774251819</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000652324641123414</v>
+        <v>0.005747264716774225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00031585872056894</v>
+        <v>0.0005083561991341412</v>
       </c>
       <c r="H13" t="n">
-        <v>9.035466064233333e-06</v>
+        <v>0.0008790353313088417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002305404050275683</v>
+        <v>7.887050742283463e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006972168339416385</v>
+        <v>0.002175393979996443</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004446255334187299</v>
+        <v>0.006013237871229649</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001150698168203235</v>
+        <v>0.000558971893042326</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001505631953477859</v>
+        <v>0.00566280260682106</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002259112661704421</v>
+        <v>0.002775677479803562</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001319007365964353</v>
+        <v>0.007110401522368193</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001074572355719283</v>
+        <v>0.0006749879685230553</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0001540719822514802</v>
+        <v>0.001011195010505617</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002080297563225031</v>
+        <v>0.0003093558480031788</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0004205599543638527</v>
+        <v>0.0006865454488433897</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0001665359304752201</v>
+        <v>0.001696872641332448</v>
       </c>
       <c r="U13" t="n">
-        <v>5.16017316840589e-05</v>
+        <v>0.0004904552479274571</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001213938230648637</v>
+        <v>0.001180798513814807</v>
       </c>
       <c r="W13" t="n">
-        <v>0.00115786783862859</v>
+        <v>0.0006174397422000766</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0006561804912053049</v>
+        <v>0.0006640617502853274</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0002709162072278559</v>
+        <v>0.0009676753543317318</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0001446351670892909</v>
+        <v>0.0002300317864865065</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.000354372023139149</v>
+        <v>0.0008187981438823044</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.644245978444815e-05</v>
+        <v>0.0003099828027188778</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0001137401559390128</v>
+        <v>0.001601472496986389</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.946425881120376e-05</v>
+        <v>0.0001405243237968534</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0002730177948251367</v>
+        <v>0.0008341030334122479</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0004030750424135476</v>
+        <v>0.001147539122030139</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0006058681756258011</v>
+        <v>0.0008519617840647697</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0002731709100771695</v>
+        <v>0.001501155085861683</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0009765669237822294</v>
+        <v>0.0005837776698172092</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001018989365547895</v>
+        <v>1.07702799141407e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0002385786356171593</v>
+        <v>0.001083905925042927</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0008090923074632883</v>
+        <v>0.001296663889661431</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0002141648292308673</v>
+        <v>3.992113488493487e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0005477546947076917</v>
+        <v>0.0002506710588932037</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0002742361975833774</v>
+        <v>0.0003541757178027183</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.001102778245694935</v>
+        <v>0.001123963273130357</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0002862784313037992</v>
+        <v>0.0008492937777191401</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0004132888570893556</v>
+        <v>0.0002415463677607477</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0002202427858719602</v>
+        <v>0.001015267567709088</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.000331853749230504</v>
+        <v>0.001384896459057927</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0003115632862318307</v>
+        <v>0.007285944186151028</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0005886093131266534</v>
+        <v>0.0002054513897746801</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.001036210218444467</v>
+        <v>0.0003832880174741149</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0005259168683551252</v>
+        <v>0.0008896057261154056</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.001354174339212477</v>
+        <v>0.003052924759685993</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.673775841481984e-05</v>
+        <v>0.0009052213281393051</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0003091238613706082</v>
+        <v>0.002114600036293268</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0007699145935475826</v>
+        <v>0.001177160302177072</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0002247779193567112</v>
+        <v>0.0009729005396366119</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0005946236778981984</v>
+        <v>0.00130272947717458</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0006183050572872162</v>
+        <v>0.002180631272494793</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0002080670237774029</v>
+        <v>0.002521147020161152</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0003971664700657129</v>
+        <v>0.003263534745201468</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0004807126242667437</v>
+        <v>0.002077704295516014</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0005246438086032867</v>
+        <v>0.0001378958695568144</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0001490067661507055</v>
+        <v>0.002958555473014712</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0004468230181373656</v>
+        <v>0.0001794115523807704</v>
       </c>
       <c r="BL13" t="n">
-        <v>6.37826815363951e-05</v>
+        <v>0.0001450149866286665</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0003063804761040956</v>
+        <v>0.002251616446301341</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0007224076543934643</v>
+        <v>0.0009743394330143929</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0001606664882274345</v>
+        <v>0.002342659747228026</v>
       </c>
       <c r="BP13" t="n">
-        <v>8.275185973616317e-05</v>
+        <v>0.001914163818582892</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0004586718569044024</v>
+        <v>0.0006237959023565054</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0001985451235668734</v>
+        <v>0.001482725027017295</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0007335435366258025</v>
+        <v>0.0002225464413641021</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0003582536010071635</v>
+        <v>0.0006116752047091722</v>
       </c>
       <c r="BU13" t="n">
-        <v>8.204468758776784e-05</v>
+        <v>0.0007503945380449295</v>
       </c>
       <c r="BV13" t="n">
-        <v>9.477597632212564e-05</v>
+        <v>0.003178100101649761</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0002769847051240504</v>
+        <v>0.00085758714703843</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0007814462878741324</v>
+        <v>0.0003119897446595132</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001064450247213244</v>
+        <v>0.0007952112937346101</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0001310943043790758</v>
+        <v>0.0006135781877674162</v>
       </c>
       <c r="CA13" t="n">
-        <v>6.344338180497289e-05</v>
+        <v>0.001445030909962952</v>
       </c>
       <c r="CB13" t="n">
-        <v>7.478096813429147e-05</v>
+        <v>0.001200504368171096</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.001608130754902959</v>
+        <v>0.0008070755284279585</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0001625458826310933</v>
+        <v>0.0002015157806454226</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0002624209737405181</v>
+        <v>0.001657480839639902</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.000227842218009755</v>
+        <v>0.0009607321117073298</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0003201677754987031</v>
+        <v>0.001203590538352728</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.000424185796873644</v>
+        <v>0.0006387590547092259</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0003928375954274088</v>
+        <v>0.001010044477880001</v>
       </c>
       <c r="CJ13" t="n">
-        <v>9.568834502715617e-05</v>
+        <v>0.0002420321980025619</v>
       </c>
       <c r="CK13" t="n">
-        <v>4.156485374551266e-05</v>
+        <v>0.0001833169953897595</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0002433477638987824</v>
+        <v>0.0004987985594198108</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.000276666774880141</v>
+        <v>0.001774107804521918</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.001136065344326198</v>
+        <v>0.001215753611177206</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0002360689977649599</v>
+        <v>0.0002220825845142826</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0003891676024068147</v>
+        <v>0.001037910347804427</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0005872556357644498</v>
+        <v>0.000717730785254389</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0003436080296523869</v>
+        <v>0.0003856830880977213</v>
       </c>
       <c r="CS13" t="n">
-        <v>8.908711606636643e-05</v>
+        <v>6.70876179356128e-05</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0001365683710901067</v>
+        <v>0.0005580815486609936</v>
       </c>
       <c r="CU13" t="n">
-        <v>8.077990787569433e-05</v>
+        <v>9.044786565937102e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0002405059203738347</v>
+        <v>6.184025551192462e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0003553179849404842</v>
+        <v>0.001260031363926828</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0002262576745124534</v>
+        <v>0.001006324659101665</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0002925318840425462</v>
+        <v>0.001664659474045038</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0005630358937196434</v>
+        <v>0.0004385969368740916</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0005204526241868734</v>
+        <v>0.0009298402001149952</v>
       </c>
       <c r="DB13" t="n">
-        <v>5.15807478222996e-05</v>
+        <v>0.0004252430226188153</v>
       </c>
       <c r="DC13" t="n">
-        <v>4.918980994261801e-05</v>
+        <v>0.0008236184366978705</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.000376805430278182</v>
+        <v>0.0002947594039142132</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0004977956414222717</v>
+        <v>0.0008000225061550736</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0006701942184008658</v>
+        <v>0.002894942183047533</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0009196570608764887</v>
+        <v>0.0001242481521330774</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0007623537676408887</v>
+        <v>0.002611599862575531</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0001897880574688315</v>
+        <v>0.0007336454000324011</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0002964366576634347</v>
+        <v>0.0002064137806883082</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0002005081332754344</v>
+        <v>0.002349075628444552</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0001356281281914562</v>
+        <v>0.0009692804887890816</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0003088880039285868</v>
+        <v>0.0006387828034348786</v>
       </c>
       <c r="DN13" t="n">
-        <v>7.022418867563829e-05</v>
+        <v>0.0007887366809882224</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0001670077763264999</v>
+        <v>0.0008881525136530399</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0001835462462622672</v>
+        <v>0.001038161804899573</v>
       </c>
       <c r="DQ13" t="n">
-        <v>6.957429286558181e-05</v>
+        <v>0.001265267143025994</v>
       </c>
       <c r="DR13" t="n">
-        <v>4.188565435470082e-05</v>
+        <v>0.0005441691027954221</v>
       </c>
       <c r="DS13" t="n">
-        <v>5.271927147987299e-05</v>
+        <v>9.756226791068912e-05</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.000202159775653854</v>
+        <v>0.0001006184975267388</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0002769834827631712</v>
+        <v>0.0001130683376686648</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0005663865013048053</v>
+        <v>0.0006018509739078581</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0001136768769356422</v>
+        <v>7.801281753927469e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>5.765976675320417e-05</v>
+        <v>1.838083107941202e-06</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0002324449014849961</v>
+        <v>0.001588278682902455</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0003796023083850741</v>
+        <v>0.0003917334834113717</v>
       </c>
       <c r="EA13" t="n">
-        <v>6.45552936475724e-05</v>
+        <v>0.000728434941265732</v>
       </c>
       <c r="EB13" t="n">
-        <v>4.57146015833132e-05</v>
+        <v>0.0001910044811666012</v>
       </c>
       <c r="EC13" t="n">
-        <v>8.302101923618466e-05</v>
+        <v>0.0004601605178322643</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0001375961874146014</v>
+        <v>0.0006169031257741153</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0007837291341274977</v>
+        <v>0.0001023376826196909</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.000234314109547995</v>
+        <v>0.0006153234280645847</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0003794869116973132</v>
+        <v>0.0002174209366785362</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0001045961253112182</v>
+        <v>0.000415349641116336</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0001792458206182346</v>
+        <v>0.0008526351302862167</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0005390946753323078</v>
+        <v>0.0001319571165367961</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0004690298228524625</v>
+        <v>0.0006561340996995568</v>
       </c>
       <c r="EL13" t="n">
-        <v>6.131722329882905e-05</v>
+        <v>0.0007046983228065073</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0003674296021927148</v>
+        <v>0.0002119667478837073</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0003616295580286533</v>
+        <v>6.188057886902243e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0001077091001207009</v>
+        <v>0.0009413134539499879</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0002652406692504883</v>
+        <v>0.0003832058282569051</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0006608134135603905</v>
+        <v>0.0008587978663854301</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0002306062669958919</v>
+        <v>0.001015237532556057</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0004754439287353307</v>
+        <v>0.001024481374770403</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0008186865597963333</v>
+        <v>0.001704196794889867</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0002147865889128298</v>
+        <v>0.0007967626443132758</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0003487448557280004</v>
+        <v>0.001062588300555944</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0003814916417468339</v>
+        <v>0.0003707147261593491</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0001871149288490415</v>
+        <v>0.0001074893443728797</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0004008066316600889</v>
+        <v>0.001106943702325225</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0002695663424674422</v>
+        <v>0.0007030574488453567</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001665527815930545</v>
+        <v>0.001170658273622394</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0004409353132359684</v>
+        <v>0.0005956157692708075</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0003783428983297199</v>
+        <v>0.0009369153995066881</v>
       </c>
       <c r="FD13" t="n">
-        <v>4.556948988465592e-05</v>
+        <v>0.000643597450107336</v>
       </c>
       <c r="FE13" t="n">
-        <v>6.036214836058207e-05</v>
+        <v>0.0003149733820464462</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0004994030459783971</v>
+        <v>0.0007037165341898799</v>
       </c>
       <c r="FG13" t="n">
-        <v>7.075348548823968e-05</v>
+        <v>0.0007401420152746141</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.000277417479082942</v>
+        <v>0.001020566327497363</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0002008909650612622</v>
+        <v>0.001125936163589358</v>
       </c>
       <c r="FJ13" t="n">
-        <v>4.466826794669032e-06</v>
+        <v>0.0003776111407205462</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0005727686220780015</v>
+        <v>0.0001949065772350878</v>
       </c>
       <c r="FL13" t="n">
-        <v>2.192387910326943e-05</v>
+        <v>0.0006226543337106705</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0001250846544280648</v>
+        <v>6.492732791230083e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0007779420120641589</v>
+        <v>0.0003504911146592349</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0001491468719905242</v>
+        <v>0.0004030775453429669</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0001191174669656903</v>
+        <v>0.001188623020425439</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.000165937002748251</v>
+        <v>0.0002599877770990133</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.00017301227489952</v>
+        <v>0.0001846035156631842</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0001314642722718418</v>
+        <v>0.001614946173503995</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0002421692188363522</v>
+        <v>0.00361947575584054</v>
       </c>
       <c r="FU13" t="n">
-        <v>4.626034569810145e-05</v>
+        <v>0.001036434667184949</v>
       </c>
       <c r="FV13" t="n">
-        <v>1.105479168472812e-05</v>
+        <v>0.0005183673929423094</v>
       </c>
       <c r="FW13" t="n">
-        <v>2.172779204556718e-06</v>
+        <v>0.001390791032463312</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0004205043660476804</v>
+        <v>0.0001311347004957497</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.000221267604501918</v>
+        <v>0.001168834627605975</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0003687588323373348</v>
+        <v>0.001239452161826193</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.000274616526439786</v>
+        <v>0.0004506417899392545</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0002606766647659242</v>
+        <v>0.001269000698812306</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0001634582440601662</v>
+        <v>0.0002110568748321384</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0003651280130725354</v>
+        <v>0.0006211759755387902</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0001984944537980482</v>
+        <v>0.003395756473764777</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0001008896724670194</v>
+        <v>0.001827858155593276</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0003801712300628424</v>
+        <v>0.0006794653600081801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.962257273495197e-05</v>
+        <v>0.002952894428744912</v>
       </c>
       <c r="B14" t="n">
-        <v>0.001038908609189093</v>
+        <v>0.001287292689085007</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001331160659901798</v>
+        <v>0.003663273993879557</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001449402887374163</v>
+        <v>0.005996905267238617</v>
       </c>
       <c r="E14" t="n">
-        <v>1.312189851887524e-05</v>
+        <v>0.0004169663297943771</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003534937277436256</v>
+        <v>0.0008323569782078266</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0009131831466220319</v>
+        <v>0.0003869459615088999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003209855873137712</v>
+        <v>0.001795484218746424</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001344528049230576</v>
+        <v>0.001388274133205414</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003397652471903712</v>
+        <v>0.003345927689224482</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002881659893319011</v>
+        <v>0.0016211555339396</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001148337032645941</v>
+        <v>0.002894103294238448</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002063809661194682</v>
+        <v>0.005516369827091694</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0002759701455943286</v>
+        <v>0.002576034748926759</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003283797763288021</v>
+        <v>0.0007505302201025188</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0006747883162461221</v>
+        <v>0.0008790172869339585</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.003300317097455263</v>
+        <v>0.002455251291394234</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001682988950051367</v>
+        <v>0.001102611422538757</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0005552024231292307</v>
+        <v>0.001630903338082135</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0001686410832917318</v>
+        <v>4.42216478404589e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0002147791383322328</v>
+        <v>0.0003283145488239825</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0004972016322426498</v>
+        <v>0.000462845986476168</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0008925081929191947</v>
+        <v>0.001220081700012088</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0006916349520906806</v>
+        <v>0.0003521289036143571</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0001817441952880472</v>
+        <v>0.0003396738320589066</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0001509462890680879</v>
+        <v>0.002097733085975051</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0004746908962260932</v>
+        <v>0.0002486348093952984</v>
       </c>
       <c r="AB14" t="n">
-        <v>3.014939284184948e-05</v>
+        <v>0.000207172823138535</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0001204890650114976</v>
+        <v>0.001442840904928744</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.069382364628837e-05</v>
+        <v>0.0002826853597071022</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0009423442534171045</v>
+        <v>0.0006129546090960503</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.000902209198102355</v>
+        <v>0.0004918650956824422</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0002805065305437893</v>
+        <v>0.0002370245492784306</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0007761284941807389</v>
+        <v>7.04416015651077e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0002150170330423862</v>
+        <v>0.0007610244792886078</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.853490099776536e-05</v>
+        <v>8.674986020196229e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.432328281225637e-05</v>
+        <v>0.0002252768899779767</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0006216608453541994</v>
+        <v>0.001203810446895659</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0006617874605581164</v>
+        <v>0.0005642549367621541</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.0001771164097590372</v>
+        <v>0.0003930954844690859</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.001281372969970107</v>
+        <v>0.0002364858228247613</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.0002307009563082829</v>
+        <v>0.0003759610117413104</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9.117567969951779e-06</v>
+        <v>0.001094706123694777</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0001448068651370704</v>
+        <v>0.0003245400148443878</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0003080968162976205</v>
+        <v>0.0004390132962726057</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0001532930618850514</v>
+        <v>0.0002336686156922951</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0001876306778285652</v>
+        <v>0.0007470822893083096</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.001391875790432096</v>
+        <v>0.002157973125576973</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.241682472638786e-05</v>
+        <v>0.004202811978757381</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.791144652292132e-05</v>
+        <v>0.0008585270261391997</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.00296098948456347</v>
+        <v>0.001377644715830684</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0001779128215275705</v>
+        <v>4.7859619371593e-05</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.001330194179899991</v>
+        <v>0.002061840845271945</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0006384903681464493</v>
+        <v>0.001117486273869872</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.807649384019896e-05</v>
+        <v>0.003653157502412796</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0002565930772107095</v>
+        <v>0.0008838603971526027</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0005976096726953983</v>
+        <v>0.0004624738357961178</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.0006624959642067552</v>
+        <v>0.001838446827605367</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0003986653173342347</v>
+        <v>0.002171580446884036</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0004294374375604093</v>
+        <v>3.603619552450255e-05</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0007622783887200058</v>
+        <v>0.002150224288925529</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.0009467050549574196</v>
+        <v>0.004018281120806932</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0002479921677149832</v>
+        <v>0.000788514968007803</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0005816575139760971</v>
+        <v>0.0008149668574333191</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0002869403688237071</v>
+        <v>0.0007346394704654813</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0004962558741681278</v>
+        <v>0.0008291468839161098</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.000579712213948369</v>
+        <v>0.0008628624491393566</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0004098173812963068</v>
+        <v>0.002351075410842896</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0003819593111984432</v>
+        <v>0.0005153074744157493</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.0002709298569243401</v>
+        <v>0.001124458503909409</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0001778900914359838</v>
+        <v>0.0006839531124569476</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.27246400754666e-05</v>
+        <v>0.001238402328453958</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.000438572489656508</v>
+        <v>0.0001698524574749172</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.000201238552108407</v>
+        <v>0.0009149276302196085</v>
       </c>
       <c r="BW14" t="n">
-        <v>5.096795212011784e-05</v>
+        <v>0.001077530323527753</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0002192044339608401</v>
+        <v>0.001882520969957113</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.0003281712124589831</v>
+        <v>0.0004998702206648886</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.001027941820211709</v>
+        <v>0.0001437826576875523</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.0005040238029323518</v>
+        <v>0.0009580997284501791</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0009911361848935485</v>
+        <v>0.002849032636731863</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0007142920512706041</v>
+        <v>0.001102098729461432</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0002050924813374877</v>
+        <v>0.0004886806127615273</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0008084796136245131</v>
+        <v>0.0007250792696140707</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0002346743131056428</v>
+        <v>0.0008624770562164485</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.0004309781943447888</v>
+        <v>0.001088200253434479</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.913056232500821e-05</v>
+        <v>0.0008167793275788426</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.00082253577420488</v>
+        <v>0.0005220386665314436</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0002045784494839609</v>
+        <v>0.0004928384441882372</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0005261650658212602</v>
+        <v>0.0005732711288146675</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0001234901283169165</v>
+        <v>0.001127758645452559</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.0005172728560864925</v>
+        <v>0.001146736554801464</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0005181287415325642</v>
+        <v>1.07702799141407e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.000832154939416796</v>
+        <v>0.0002752459258772433</v>
       </c>
       <c r="CP14" t="n">
-        <v>4.951818846166134e-05</v>
+        <v>0.00106851221062243</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0006570855039171875</v>
+        <v>9.821490675676614e-05</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0006750222528353333</v>
+        <v>0.001281336299143732</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.00015479457215406</v>
+        <v>0.0008342140936292708</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0003968364326283336</v>
+        <v>0.00113436917308718</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0003348616883158684</v>
+        <v>0.0004264558956492692</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0002557175175752491</v>
+        <v>0.0004449696862138808</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0009332155459560454</v>
+        <v>0.0005475848447531462</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0002231805119663477</v>
+        <v>0.0004265112802386284</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.000474384636618197</v>
+        <v>0.0007320197182707489</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0001387431839248165</v>
+        <v>0.000933758681640029</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.0008147605112753808</v>
+        <v>0.0005397568456828594</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.469292328692973e-06</v>
+        <v>0.0002964804880321026</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0006957665318623185</v>
+        <v>0.0002939938567578793</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0001597036607563496</v>
+        <v>0.001239472068846226</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.001119152759201825</v>
+        <v>0.0007391230901703238</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0003225262043997645</v>
+        <v>0.003490400034934282</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.0004806598299182951</v>
+        <v>0.0004142616526223719</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.0003830607165582478</v>
+        <v>0.001513132825493813</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0008479296811856329</v>
+        <v>0.0003498401783872396</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.0007276033866219223</v>
+        <v>0.001560721313580871</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.889212191803381e-05</v>
+        <v>0.003897232236340642</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0001830087858252227</v>
+        <v>0.0001886927784653381</v>
       </c>
       <c r="DM14" t="n">
-        <v>6.49648136459291e-05</v>
+        <v>0.0002797812921926379</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0004084894608240575</v>
+        <v>0.000429818406701088</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.0006684103282168508</v>
+        <v>0.000574880454223603</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0002535922394599766</v>
+        <v>0.001178172416985035</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0001524299732409418</v>
+        <v>4.306211485527456e-05</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0001519597426522523</v>
+        <v>0.001495757373049855</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.001015128684230149</v>
+        <v>7.417947927024215e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.0001500564685557038</v>
+        <v>2.456112997606397e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0004813088162336498</v>
+        <v>0.0008428568253293633</v>
       </c>
       <c r="DV14" t="n">
-        <v>3.636698238551617e-06</v>
+        <v>0.0009339459938928485</v>
       </c>
       <c r="DW14" t="n">
-        <v>4.848695243708789e-05</v>
+        <v>2.199919254053384e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>4.322682070778683e-05</v>
+        <v>0.0001127391660702415</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.0004141242825426161</v>
+        <v>0.0003093142877332866</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0005849702865816653</v>
+        <v>0.0008569161873310804</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0003045957419089973</v>
+        <v>7.749204814899713e-05</v>
       </c>
       <c r="EB14" t="n">
-        <v>3.965481300838292e-05</v>
+        <v>0.0009976790752261877</v>
       </c>
       <c r="EC14" t="n">
-        <v>6.615029997192323e-05</v>
+        <v>0.0005159408319741488</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0005929853650741279</v>
+        <v>0.001342947361990809</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.000358800170943141</v>
+        <v>8.875296043697745e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0002966772590298206</v>
+        <v>0.0004086128901690245</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.000716378097422421</v>
+        <v>0.001169957336969674</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.0001614212378626689</v>
+        <v>0.0008448881562799215</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.0005510459886863828</v>
+        <v>0.001446821494027972</v>
       </c>
       <c r="EJ14" t="n">
-        <v>7.442227797582746e-05</v>
+        <v>4.630850162357092e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.0007196434307843447</v>
+        <v>0.0004139896773267537</v>
       </c>
       <c r="EL14" t="n">
-        <v>2.137655974365771e-05</v>
+        <v>0.0002699406468309462</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0006681537488475442</v>
+        <v>0.0006420720601454377</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0002247068914584816</v>
+        <v>0.001601869822479784</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0001057209447026253</v>
+        <v>0.0006514196284115314</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0001065477263182402</v>
+        <v>3.256873606005684e-05</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.0008892447222024202</v>
+        <v>0.0007332839304581285</v>
       </c>
       <c r="ER14" t="n">
-        <v>3.843230661004782e-05</v>
+        <v>0.000389234017347917</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.0005872203037142754</v>
+        <v>0.0007177666993811727</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0001642584684304893</v>
+        <v>0.0003217046614736319</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.000298188126180321</v>
+        <v>0.0002392954047536477</v>
       </c>
       <c r="EV14" t="n">
-        <v>4.656270903069526e-05</v>
+        <v>0.00254462007433176</v>
       </c>
       <c r="EW14" t="n">
-        <v>4.697917029261589e-05</v>
+        <v>0.001639742171391845</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.0002076982345897704</v>
+        <v>0.0003379270201548934</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.0008218310540542006</v>
+        <v>0.0007012705318629742</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.0003913555410690606</v>
+        <v>0.0006229407736100256</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0005138550768606365</v>
+        <v>0.0009149792604148388</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.000206238153623417</v>
+        <v>0.000821949215605855</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0007137232460081577</v>
+        <v>0.0007187972078099847</v>
       </c>
       <c r="FD14" t="n">
-        <v>4.740474469144829e-05</v>
+        <v>0.0001525864354334772</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0006088848458603024</v>
+        <v>0.0003256584168411791</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0001011359199765138</v>
+        <v>0.001339276088401675</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.0001660215493757278</v>
+        <v>0.0003116959123872221</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.001108716940507293</v>
+        <v>6.175946327857673e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.0002970085188280791</v>
+        <v>0.0002041520638158545</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.0009526547510176897</v>
+        <v>0.00112973153591156</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.0003712709294632077</v>
+        <v>0.000515833031386137</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.0002307295508217067</v>
+        <v>1.067123957909644e-05</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0001668343029450625</v>
+        <v>0.0004798914305865765</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.0009480930166319013</v>
+        <v>0.0003066303324885666</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0001177024678327143</v>
+        <v>0.000941219856031239</v>
       </c>
       <c r="FP14" t="n">
-        <v>7.057198672555387e-05</v>
+        <v>0.001323232194408774</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0007820182363502681</v>
+        <v>0.0009903509635478258</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.000417010800447315</v>
+        <v>0.003035628003999591</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0005938358372077346</v>
+        <v>0.002454506466165185</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0002887422451749444</v>
+        <v>0.0001488256966695189</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.002192572690546513</v>
+        <v>0.001543964026495814</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.0006578340544365346</v>
+        <v>0.0003460198058746755</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0009939039591699839</v>
+        <v>2.627657158882357e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0003262237296439707</v>
+        <v>0.000953450333327055</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.000137307375553064</v>
+        <v>0.0003298080409877002</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.0002579496067482978</v>
+        <v>0.000689513748511672</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.000568387215025723</v>
+        <v>0.001514266943559051</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0004718066775240004</v>
+        <v>0.0001383456692565233</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.0005980937276035547</v>
+        <v>0.001169565482996404</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0002699339820537716</v>
+        <v>0.001675612293183804</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0006822948344051838</v>
+        <v>0.0005262935301288962</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0001648779580136761</v>
+        <v>0.0005010132445022464</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0002960381098091602</v>
+        <v>0.0006900894222781062</v>
       </c>
     </row>
     <row r="15">
@@ -8970,2278 +8970,2278 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.002336293924599886</v>
+        <v>0.002775745699182153</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00120456307195127</v>
+        <v>0.08466549962759018</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00058179214829579</v>
+        <v>0.008200023323297501</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001730015035718679</v>
+        <v>0.02781837061047554</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005212461575865746</v>
+        <v>0.06213460862636566</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02045672386884689</v>
+        <v>0.0238741934299469</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0034097486641258</v>
+        <v>0.007895956747233868</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01332973316311836</v>
+        <v>0.01233414560556412</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003460448002442718</v>
+        <v>0.005917063914239407</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002310457639396191</v>
+        <v>0.003617201000452042</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001351926010102034</v>
+        <v>0.06211022660136223</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001121482811868191</v>
+        <v>0.005519378930330276</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001262122998014092</v>
+        <v>0.008929873816668987</v>
       </c>
       <c r="N16" t="n">
-        <v>0.004210949409753084</v>
+        <v>0.04887904599308968</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02050808630883694</v>
+        <v>0.02196934819221497</v>
       </c>
       <c r="P16" t="n">
-        <v>0.002899568527936935</v>
+        <v>0.00201257411390543</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01133135426789522</v>
+        <v>0.006688475608825684</v>
       </c>
       <c r="R16" t="n">
-        <v>0.003439574502408504</v>
+        <v>0.0004900849889963865</v>
       </c>
       <c r="S16" t="n">
-        <v>0.003115983214229345</v>
+        <v>0.0005754472222179174</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0002526632451917976</v>
+        <v>0.01299239229410887</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0007258494733832777</v>
+        <v>0.002174595138058066</v>
       </c>
       <c r="V16" t="n">
-        <v>0.002143991179764271</v>
+        <v>0.01172492746263742</v>
       </c>
       <c r="W16" t="n">
-        <v>0.001525179715827107</v>
+        <v>0.0207443293184042</v>
       </c>
       <c r="X16" t="n">
-        <v>0.003855179995298386</v>
+        <v>0.008568760007619858</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0003444752073846757</v>
+        <v>0.005708609241992235</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.001487251836806536</v>
+        <v>0.01596545055508614</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0005878088995814323</v>
+        <v>0.001969293225556612</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.001278343494050205</v>
+        <v>0.002487911842763424</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.504524546675384e-05</v>
+        <v>0.008609229698777199</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.001152534503489733</v>
+        <v>0.001649179728701711</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.00151590071618557</v>
+        <v>0.001220164238475263</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.008835332468152046</v>
+        <v>0.01151037309318781</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.003279407741501927</v>
+        <v>0.0007564229890704155</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.001249765045940876</v>
+        <v>0.01172535587102175</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.00265238992869854</v>
+        <v>0.002178769325837493</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.000492640130687505</v>
+        <v>0.001120883505791426</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.576125214342028e-05</v>
+        <v>0.01332299411296844</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0007549440488219261</v>
+        <v>0.0127282403409481</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.003118161344900727</v>
+        <v>0.004804531112313271</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.001972540048882365</v>
+        <v>0.001687975600361824</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.00312034459784627</v>
+        <v>0.009311525151133537</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.002323894528672099</v>
+        <v>0.01174545753747225</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0003097253211308271</v>
+        <v>0.005169781390577555</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.001034562825225294</v>
+        <v>0.001200385158881545</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.001515962998382747</v>
+        <v>0.005807708017528057</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.001322483876720071</v>
+        <v>0.008973131887614727</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0002588813658803701</v>
+        <v>0.07423293590545654</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.002166158985346556</v>
+        <v>0.007945594377815723</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.000990653526969254</v>
+        <v>0.001829675631597638</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0005859602242708206</v>
+        <v>0.01606501638889313</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.009017312899231911</v>
+        <v>0.02748433127999306</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0003567538224160671</v>
+        <v>0.00822134967893362</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.002637544646859169</v>
+        <v>0.01622993126511574</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0008339702617377043</v>
+        <v>0.003203361062332988</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0007095412584021688</v>
+        <v>0.005933077074587345</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0006960590835660696</v>
+        <v>0.01808447577059269</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001706812065094709</v>
+        <v>0.0102428225800395</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.001974625047296286</v>
+        <v>0.006028830539435148</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.001988102681934834</v>
+        <v>0.0413934551179409</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.001771044917404652</v>
+        <v>0.01062491536140442</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.0002416569623164833</v>
+        <v>0.00263238325715065</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.006946828216314316</v>
+        <v>0.01698140799999237</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0008136362885124981</v>
+        <v>0.008385960012674332</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0001090313890017569</v>
+        <v>0.01069763489067554</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.001093081897124648</v>
+        <v>0.03968445211648941</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.000434427463915199</v>
+        <v>0.009791621938347816</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.001516730291768909</v>
+        <v>0.007984090596437454</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.001495086587965488</v>
+        <v>0.01995229348540306</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.002623582491651177</v>
+        <v>0.01001483760774136</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.001356443855911493</v>
+        <v>0.008972004055976868</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.001133815501816571</v>
+        <v>0.002496317028999329</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.001105318544432521</v>
+        <v>0.002427368890494108</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.00255420058965683</v>
+        <v>0.007741217501461506</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.000516593805514276</v>
+        <v>0.04135988652706146</v>
       </c>
       <c r="BW16" t="n">
-        <v>1.32498680613935e-05</v>
+        <v>0.01823894493281841</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.001625057775527239</v>
+        <v>0.002920077415183187</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.001471311901696026</v>
+        <v>0.01247169449925423</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.008292444050312042</v>
+        <v>0.006376092322170734</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0005214549601078033</v>
+        <v>0.008364015258848667</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.002147681545466185</v>
+        <v>0.003296392504125834</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.002252511447295547</v>
+        <v>0.0002362397499382496</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.000371083413483575</v>
+        <v>0.003536507254466414</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0006464712787419558</v>
+        <v>0.01375839114189148</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.000682749436236918</v>
+        <v>0.004398573655635118</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.001676908577792346</v>
+        <v>0.007188867311924696</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.001158414990641177</v>
+        <v>0.005929180886596441</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.003390797413885593</v>
+        <v>0.005121152848005295</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0007844465435482562</v>
+        <v>0.007432541809976101</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.002139260526746511</v>
+        <v>0.002767586149275303</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.0004789582453668118</v>
+        <v>0.00206509162671864</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.002317614387720823</v>
+        <v>0.02564477734267712</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.001570019870996475</v>
+        <v>0.01884925179183483</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.001385278650559485</v>
+        <v>0.002832858823239803</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.001370076322928071</v>
+        <v>0.008324946276843548</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0006980662001296878</v>
+        <v>0.009234917350113392</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.004666912835091352</v>
+        <v>0.006995949894189835</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.00154606276191771</v>
+        <v>0.005258374847471714</v>
       </c>
       <c r="CT16" t="n">
-        <v>6.804958684369922e-05</v>
+        <v>0.00525240134447813</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.002318229991942644</v>
+        <v>0.005798657890409231</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.000774829532019794</v>
+        <v>0.002734031993895769</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.0008567623444832861</v>
+        <v>0.009434906765818596</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.0005435168277472258</v>
+        <v>0.005997347179800272</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.001329672406427562</v>
+        <v>0.01195515692234039</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.00206293142400682</v>
+        <v>0.003644029144197702</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.003558511612936854</v>
+        <v>0.006592423655092716</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.000200236143427901</v>
+        <v>0.007157717831432819</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.003328078193590045</v>
+        <v>0.005294627044349909</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0006686715641990304</v>
+        <v>0.0007760716835036874</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.004948665387928486</v>
+        <v>0.003701833775267005</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.003263482125476003</v>
+        <v>0.01767055690288544</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.003102570539340377</v>
+        <v>0.003464184002950788</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.001157096587121487</v>
+        <v>0.04600765183568001</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.002741560805588961</v>
+        <v>0.01682198047637939</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.005091292317956686</v>
+        <v>0.004556272644549608</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.002719924785196781</v>
+        <v>0.01737227290868759</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0008051011245697737</v>
+        <v>0.008253563195466995</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.001668311888352036</v>
+        <v>0.01086807996034622</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.001795057323761284</v>
+        <v>0.005872016306966543</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.0008112140349112451</v>
+        <v>0.006437443662434816</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.000260972767136991</v>
+        <v>0.01186506636440754</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.001597298309206963</v>
+        <v>0.006085595116019249</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.0005335987661965191</v>
+        <v>0.009693238884210587</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.001176131423562765</v>
+        <v>0.005061980336904526</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.0009415841195732355</v>
+        <v>0.002274144440889359</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.001323376200161874</v>
+        <v>0.004332632292062044</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0001780317688826472</v>
+        <v>0.001521008904092014</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.0006292891339398921</v>
+        <v>0.007803275249898434</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0004148956504650414</v>
+        <v>0.003477447899058461</v>
       </c>
       <c r="DY16" t="n">
-        <v>8.437084034085274e-05</v>
+        <v>0.001006077160127461</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0006078682490624487</v>
+        <v>0.007112016435712576</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0008481362601742148</v>
+        <v>0.004848198033869267</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0004376701544970274</v>
+        <v>0.001274796668440104</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.0005922497366555035</v>
+        <v>0.005634766072034836</v>
       </c>
       <c r="ED16" t="n">
-        <v>2.018013037741184e-05</v>
+        <v>0.001009250991046429</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0002210958919022232</v>
+        <v>0.002801819704473019</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0008000804809853435</v>
+        <v>0.004291790071874857</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.001279460615478456</v>
+        <v>0.00639771344140172</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.0003244777617510408</v>
+        <v>0.00288782361894846</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.001299740048125386</v>
+        <v>0.004758827853947878</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.003752802964299917</v>
+        <v>0.00659910636022687</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.004422964528203011</v>
+        <v>0.001155969221144915</v>
       </c>
       <c r="EL16" t="n">
-        <v>7.708287739660591e-05</v>
+        <v>0.007872195914387703</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.001888066413812339</v>
+        <v>0.002582048997282982</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.0006860471912659705</v>
+        <v>0.0004448805702850223</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.0002006577415158972</v>
+        <v>0.01229921728372574</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.001517380704171956</v>
+        <v>0.003727988339960575</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.001439911080524325</v>
+        <v>0.009644530713558197</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.0003776500525418669</v>
+        <v>0.01205560471862555</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.002667340449988842</v>
+        <v>0.0002467571757733822</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.002467406447976828</v>
+        <v>0.01433671358972788</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.001362175215035677</v>
+        <v>0.008070864714682102</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.002651728922501206</v>
+        <v>0.01028114464133978</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.001230489229783416</v>
+        <v>0.0009040943114086986</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.000375200470443815</v>
+        <v>0.003278371645137668</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.0004207245947327465</v>
+        <v>0.006790533661842346</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.0005428221775218844</v>
+        <v>0.003262500511482358</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.001420520478859544</v>
+        <v>0.008474231697618961</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.001588828745298088</v>
+        <v>0.004515783861279488</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.003453645389527082</v>
+        <v>0.00778206018730998</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.0004906263202428818</v>
+        <v>0.009986786171793938</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.00306906714104116</v>
+        <v>0.003831059671938419</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.0002060671104118228</v>
+        <v>0.004873433150351048</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.0002763222437351942</v>
+        <v>0.0038249003700912</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.0006629782728850842</v>
+        <v>0.009859996847808361</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0003955454449169338</v>
+        <v>0.006781581323593855</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.000731819833163172</v>
+        <v>0.01234133169054985</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.002427087165415287</v>
+        <v>0.005909998901188374</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.002675333758816123</v>
+        <v>0.002799382666125894</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.0005360645591281354</v>
+        <v>0.00662772823125124</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.002446584869176149</v>
+        <v>0.005427474156022072</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.001719939638860524</v>
+        <v>0.004777338821440935</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.001167990500107408</v>
+        <v>0.02156636491417885</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0006075343117117882</v>
+        <v>0.003227892331779003</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.0002351202128920704</v>
+        <v>0.00719707366079092</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.003212316893041134</v>
+        <v>0.01654141955077648</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.001224916893988848</v>
+        <v>0.006625570356845856</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.006176811642944813</v>
+        <v>0.004535953514277935</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.002260437700897455</v>
+        <v>0.003882169490680099</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.002504895441234112</v>
+        <v>0.002003559842705727</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.001445145579054952</v>
+        <v>0.003622429212555289</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.0009063962497748435</v>
+        <v>0.0191524475812912</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0006100041791796684</v>
+        <v>0.008121469989418983</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.001521854544989765</v>
+        <v>0.001949854893609881</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.0001785512868082151</v>
+        <v>0.0008287064265459776</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.000233512997510843</v>
+        <v>0.004431661684066057</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.002617061138153076</v>
+        <v>0.01017484813928604</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.001523309852927923</v>
+        <v>0.02285036444664001</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.003435113467276096</v>
+        <v>0.002933511976152658</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.0004755826375912875</v>
+        <v>0.002873562974855304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0005302042118273675</v>
+        <v>0.0009634827729314566</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02093011885881424</v>
+        <v>0.03095623292028904</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001678439904935658</v>
+        <v>0.004767491016536951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0009444898460060358</v>
+        <v>0.02076093293726444</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01433644909411669</v>
+        <v>0.006340131163597107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02763181552290916</v>
+        <v>0.002850731834769249</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002386649372056127</v>
+        <v>0.004853042773902416</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006587852258235216</v>
+        <v>0.002923373598605394</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005795916542410851</v>
+        <v>0.000518529734108597</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003147499170154333</v>
+        <v>0.004754713736474514</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02110645174980164</v>
+        <v>0.0238961037248373</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004784463439136744</v>
+        <v>0.001098480774089694</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003489684779196978</v>
+        <v>0.0196125004440546</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01223995350301266</v>
+        <v>0.009701753966510296</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0280524455010891</v>
+        <v>0.007368166465312243</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0009603663929738104</v>
+        <v>0.002335539553314447</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.003550962079316378</v>
+        <v>0.002536564599722624</v>
       </c>
       <c r="R17" t="n">
-        <v>0.005566656123846769</v>
+        <v>0.002738645765930414</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001899664988741279</v>
+        <v>0.001658910885453224</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001669342280365527</v>
+        <v>0.006075351964682341</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0009731890168040991</v>
+        <v>0.0003237635537516326</v>
       </c>
       <c r="V17" t="n">
-        <v>0.001659555127844214</v>
+        <v>0.002401511883363128</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0004625304136425257</v>
+        <v>0.001469160779379308</v>
       </c>
       <c r="X17" t="n">
-        <v>0.007556484080851078</v>
+        <v>0.003773690201342106</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.002176389563828707</v>
+        <v>0.004116802476346493</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0051191421225667</v>
+        <v>0.002271343721076846</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001944813295267522</v>
+        <v>0.0028212103061378</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.004956234246492386</v>
+        <v>0.002082329476252198</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.002537048188969493</v>
+        <v>0.005746162962168455</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.001633682288229465</v>
+        <v>0.0006678241188637912</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0002822069800458848</v>
+        <v>0.0009274196345359087</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.008394114673137665</v>
+        <v>0.0005436887731775641</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.001167060225270689</v>
+        <v>0.0006144012440927327</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.70099800825119e-05</v>
+        <v>0.002543734619393945</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.003392329206690192</v>
+        <v>0.001247681444510818</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0006780051626265049</v>
+        <v>0.001255739713087678</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.001543192891404033</v>
+        <v>0.00239728600718081</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.005306875333189964</v>
+        <v>0.004202584270387888</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.001051138620823622</v>
+        <v>0.0001473796437494457</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.515843465924263e-05</v>
+        <v>3.171793650835752e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0002986463368870318</v>
+        <v>0.00216538505628705</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.003847609972581267</v>
+        <v>0.002214817563071847</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0008913137717172503</v>
+        <v>0.0029130051843822</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.001707036979496479</v>
+        <v>0.001988278003409505</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.002243829658254981</v>
+        <v>0.001274278271012008</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.001739564817398787</v>
+        <v>0.002393579576164484</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.01269658654928207</v>
+        <v>0.02198480069637299</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.002931910566985607</v>
+        <v>0.0007659011171199381</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.005047662649303675</v>
+        <v>0.004813493229448795</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.002091704867780209</v>
+        <v>0.0005546888569369912</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.01385143771767616</v>
+        <v>0.0001770379021763802</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.0008708692039363086</v>
+        <v>0.003090352052822709</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0001403099158778787</v>
+        <v>0.0005742307403124869</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.000828322721645236</v>
+        <v>1.879173214547336e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.004964193794876337</v>
+        <v>0.0007592361653223634</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.001092150341719389</v>
+        <v>0.005712345242500305</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.002245467389002442</v>
+        <v>0.007192236836999655</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.005224290303885937</v>
+        <v>0.005508816335350275</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.002577669452875853</v>
+        <v>0.009547584690153599</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.003883714787662029</v>
+        <v>0.002714326372370124</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.000955858500674367</v>
+        <v>0.002522217808291316</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.006116352044045925</v>
+        <v>0.002245937706902623</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.003241798840463161</v>
+        <v>0.001602682983502746</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.002182804048061371</v>
+        <v>0.003747092559933662</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.002831146586686373</v>
+        <v>0.004854531027376652</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.002020916203036904</v>
+        <v>0.00417048018425703</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.001537995878607035</v>
+        <v>0.0002183036849601194</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.006168668158352375</v>
+        <v>0.003125813324004412</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.002728360239416361</v>
+        <v>0.002171340631321073</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.001363625284284353</v>
+        <v>0.0005199360311962664</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.005108023062348366</v>
+        <v>0.001014398643746972</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.003481853287667036</v>
+        <v>0.001914883847348392</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0006593186408281326</v>
+        <v>0.002217665314674377</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.007334460038691759</v>
+        <v>0.01124753337353468</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0002922583080362529</v>
+        <v>0.004768269136548042</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.002398950979113579</v>
+        <v>0.00438227690756321</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.003369043814018369</v>
+        <v>0.001008128747344017</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.008834805339574814</v>
+        <v>0.001883457764051855</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.001618929323740304</v>
+        <v>0.002518720924854279</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.001521558733657002</v>
+        <v>0.001378832967020571</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.004439504351466894</v>
+        <v>0.002379244426265359</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.001061716233380139</v>
+        <v>0.0007000517216511071</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.004437313880771399</v>
+        <v>0.005380258895456791</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.000196579989278689</v>
+        <v>0.002327275462448597</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0007740872679278255</v>
+        <v>0.002298614708706737</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.003730487078428268</v>
+        <v>0.0009413972729817033</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.005057520233094692</v>
+        <v>0.001360255759209394</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.0005762003129348159</v>
+        <v>0.0008416950004175305</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.0004805641656275839</v>
+        <v>0.0004787161306012422</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.001049272133968771</v>
+        <v>0.00108646263834089</v>
       </c>
       <c r="CM17" t="n">
-        <v>9.67394735198468e-05</v>
+        <v>0.006279961671680212</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.002014899393543601</v>
+        <v>0.003797858720645308</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.002896379446610808</v>
+        <v>5.744173540733755e-05</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.001605162629857659</v>
+        <v>0.003629961516708136</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.004321345128118992</v>
+        <v>0.003107387106865644</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.004906751681119204</v>
+        <v>8.868724398780614e-05</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.00333813764154911</v>
+        <v>0.003255148185417056</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0008518097456544638</v>
+        <v>0.004983484745025635</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.000806375581305474</v>
+        <v>0.0002922233543358743</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.001638006768189371</v>
+        <v>0.0005840958328917623</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.004296391736716032</v>
+        <v>0.004610638599842787</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.0003276995848864317</v>
+        <v>0.002882303902879357</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.000320159480907023</v>
+        <v>0.003227602457627654</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.003483034670352936</v>
+        <v>0.001053949235938489</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.004413880407810211</v>
+        <v>0.002085766289383173</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.001439492916688323</v>
+        <v>0.0009579907055012882</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.0004856245359405875</v>
+        <v>0.0008361720247194171</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.001272503868676722</v>
+        <v>0.0001805636566132307</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.005411053076386452</v>
+        <v>0.002156747737899423</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.003059646347537637</v>
+        <v>0.004922848660498857</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.003341837553307414</v>
+        <v>0.001285048550926149</v>
       </c>
       <c r="DH17" t="n">
-        <v>4.851730773225427e-05</v>
+        <v>0.007920424453914165</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.008830428123474121</v>
+        <v>0.000987403211183846</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0006297171348705888</v>
+        <v>0.002913266653195024</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.005978045985102654</v>
+        <v>0.002131512155756354</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.002209069672971964</v>
+        <v>0.0005707127857021987</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.00489793810993433</v>
+        <v>0.0004238483379594982</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.001526877516880631</v>
+        <v>2.094017690978944e-05</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.001698231091722846</v>
+        <v>0.001112251309677958</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.002103568287566304</v>
+        <v>0.001689888071268797</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.001843548147007823</v>
+        <v>0.0005516272503882647</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0005300026386976242</v>
+        <v>0.00267862225882709</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.002077726647257805</v>
+        <v>0.002078042831271887</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.001668006181716919</v>
+        <v>0.001409653341397643</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0009009137284010649</v>
+        <v>0.002284752670675516</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.0009142535272985697</v>
+        <v>0.003208696842193604</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.000513271545059979</v>
+        <v>0.0001250948989763856</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0009525970090180635</v>
+        <v>0.002334000775590539</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.001169973169453442</v>
+        <v>0.00231657805852592</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.001086631091311574</v>
+        <v>0.001986671006307006</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.001306564314290881</v>
+        <v>0.002583469729870558</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.001442127977497876</v>
+        <v>0.0009428908815607429</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.001223915256559849</v>
+        <v>0.001715774997137487</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.001223003841005266</v>
+        <v>0.0008802033262327313</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.001248157466761768</v>
+        <v>0.002278938191011548</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.002017378807067871</v>
+        <v>0.0001083773095160723</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.005884985439479351</v>
+        <v>0.003094862448051572</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.003152357181534171</v>
+        <v>0.002478497801348567</v>
       </c>
       <c r="EI17" t="n">
-        <v>3.586946695577353e-05</v>
+        <v>0.003398898988962173</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.007878008298575878</v>
+        <v>0.001551443827338517</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.005628506653010845</v>
+        <v>0.003473853226751089</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.0004478920891415328</v>
+        <v>0.0005827186978422105</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.001917565823532641</v>
+        <v>0.0005123412702232599</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.002606299705803394</v>
+        <v>0.0005428817821666598</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.000768956437241286</v>
+        <v>0.0002390615409240127</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.001464859582483768</v>
+        <v>0.003888161387294531</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.0007451274432241917</v>
+        <v>0.003659315640106797</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.0002775323810055852</v>
+        <v>0.001109404605813324</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.002928936388343573</v>
+        <v>0.0004473461012821645</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.003172567579895258</v>
+        <v>0.001616314868442714</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.002236628439277411</v>
+        <v>0.002060570055618882</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.0001150728494394571</v>
+        <v>0.00293122953735292</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.001894220360554755</v>
+        <v>0.0005695477011613548</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.001832202775403857</v>
+        <v>0.0002506308956071734</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.00505280215293169</v>
+        <v>0.004927321337163448</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.0002699609322007746</v>
+        <v>0.001935501582920551</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.0003994735307060182</v>
+        <v>0.003351020393893123</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.003487870097160339</v>
+        <v>0.0005340586649253964</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.00477320933714509</v>
+        <v>0.002097966847941279</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.0007517263293266296</v>
+        <v>0.000990967033430934</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0002485314616933465</v>
+        <v>0.000400939752580598</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.0009788197930902243</v>
+        <v>0.0008856009226292372</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.002502421382814646</v>
+        <v>0.0006215579924173653</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.005606990307569504</v>
+        <v>0.001456131576560438</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.005351999774575233</v>
+        <v>0.002289841882884502</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.001768626738339663</v>
+        <v>0.002589494455605745</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.005192888434976339</v>
+        <v>0.001635188818909228</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.004752484150230885</v>
+        <v>0.003427086398005486</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.001345867291092873</v>
+        <v>0.0003291055909357965</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.001244592596776783</v>
+        <v>2.512703940737993e-05</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.001447534188628197</v>
+        <v>0.0004514259635470808</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.0006143371574580669</v>
+        <v>0.0001843056525103748</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.00552909541875124</v>
+        <v>0.004236432258039713</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.002267875941470265</v>
+        <v>0.003304737387225032</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.005941877141594887</v>
+        <v>0.00274854339659214</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.003471482079476118</v>
+        <v>0.0001579251402290538</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.008499143645167351</v>
+        <v>0.002834150101989508</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.0004166481667198241</v>
+        <v>0.001375416992232203</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.0002650459646247327</v>
+        <v>0.001257400377653539</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0004582651890814304</v>
+        <v>0.0007269377820193768</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.002117697848007083</v>
+        <v>0.005040921270847321</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.002304491819813848</v>
+        <v>0.0007201615953817964</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.0002943213621620089</v>
+        <v>4.654750955523923e-05</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.0005722253117710352</v>
+        <v>0.0008422655519098043</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.001038217451423407</v>
+        <v>0.0008608857751823962</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0008515531662851572</v>
+        <v>0.003230905625969172</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.002235646825283766</v>
+        <v>0.01046725176274776</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.005951795261353254</v>
+        <v>0.001379145192913711</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.002553550992161036</v>
+        <v>0.002635803306475282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0005995192332193255</v>
+        <v>0.0001042949734255672</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0005583157762885094</v>
+        <v>0.004555853083729744</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004277217201888561</v>
+        <v>0.0003151394776068628</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001511587062850595</v>
+        <v>0.001972925383597612</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01687777973711491</v>
+        <v>0.001533274189569056</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01466166041791439</v>
+        <v>0.003110782708972692</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002224619267508388</v>
+        <v>0.0003574738511815667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002705506281927228</v>
+        <v>0.001086939009837806</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001141107175499201</v>
+        <v>8.732381684239954e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001287026447243989</v>
+        <v>0.0006048438954167068</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004410365945659578</v>
+        <v>0.003657442983239889</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004505123011767864</v>
+        <v>0.0007469336269423366</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001964830560609698</v>
+        <v>0.001729989540763199</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0120282806456089</v>
+        <v>0.001709580654278398</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01359632331877947</v>
+        <v>0.00385058531537652</v>
       </c>
       <c r="P18" t="n">
-        <v>0.001195903751067817</v>
+        <v>0.0003967431548517197</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002788129961118102</v>
+        <v>0.0001591914333403111</v>
       </c>
       <c r="R18" t="n">
-        <v>0.001800232217647135</v>
+        <v>0.0001876323076430708</v>
       </c>
       <c r="S18" t="n">
-        <v>0.004376780241727829</v>
+        <v>0.0004325495683588088</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001096414984203875</v>
+        <v>0.001078130677342415</v>
       </c>
       <c r="U18" t="n">
-        <v>0.001824915292672813</v>
+        <v>7.769803778501227e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.003701718058437109</v>
+        <v>0.0006142717320472002</v>
       </c>
       <c r="W18" t="n">
-        <v>0.000547245959751308</v>
+        <v>2.321692954865284e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>0.001244122860953212</v>
+        <v>0.0004018604231532663</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0003606299869716167</v>
+        <v>0.0004481153446249664</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.001456555910408497</v>
+        <v>1.029300619848073e-05</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.002050305716693401</v>
+        <v>0.0004688716435339302</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0005703789065591991</v>
+        <v>0.0002368156565353274</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0008252407424151897</v>
+        <v>0.0009749686578288674</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.001659312867559493</v>
+        <v>0.0006172250723466277</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001650438760407269</v>
+        <v>0.0006159718031994998</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0001981202512979507</v>
+        <v>0.0006299305241554976</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.00134636671282351</v>
+        <v>0.0004685850581154227</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.001849651336669922</v>
+        <v>0.0008533115615136921</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.001326299738138914</v>
+        <v>0.0001723206078168005</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0007557391654700041</v>
+        <v>0.0002098983532050624</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0002471293264534324</v>
+        <v>0.0008225434576161206</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.002675158437341452</v>
+        <v>0.0008938767714425921</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.002741254167631269</v>
+        <v>8.847200660966337e-06</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.002198552247136831</v>
+        <v>7.012218702584505e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0021056211553514</v>
+        <v>0.0002881226828321815</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.001251609181053936</v>
+        <v>0.000674980110488832</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.502645894419402e-05</v>
+        <v>0.0003569404361769557</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.002385325729846954</v>
+        <v>0.0002117474796250463</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.001358623383566737</v>
+        <v>0.0005086947930976748</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0005208550137467682</v>
+        <v>0.0008754266309551895</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.002481275703758001</v>
+        <v>0.003969460260123014</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.007753297686576843</v>
+        <v>0.0004983284161426127</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.001203626859933138</v>
+        <v>0.0002248668461106718</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.005915171466767788</v>
+        <v>0.0003138406900689006</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.001757920486852527</v>
+        <v>0.002131101675331593</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.0008026182185858488</v>
+        <v>0.0004791319952346385</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.001105864066630602</v>
+        <v>0.001237121992744505</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.002227317076176405</v>
+        <v>0.0007018299074843526</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0005966222379356623</v>
+        <v>2.277226303704083e-05</v>
       </c>
       <c r="BD18" t="n">
-        <v>4.851790436077863e-05</v>
+        <v>0.0008338932530023158</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.0004825517535209656</v>
+        <v>0.001438532839529216</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.001569536980241537</v>
+        <v>0.0008063983405008912</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.0009110538521781564</v>
+        <v>0.001345098600722849</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.00403352128341794</v>
+        <v>0.001074815867468715</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.003146410919725895</v>
+        <v>9.077624417841434e-05</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.0006032496457919478</v>
+        <v>0.001585878548212349</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.000109810775029473</v>
+        <v>2.636798308230937e-05</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.001064655487425625</v>
+        <v>2.480228431522846e-06</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.001509525813162327</v>
+        <v>0.001407853793352842</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.002343738917261362</v>
+        <v>0.0004726657643914223</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.003140456043183804</v>
+        <v>0.0008418839424848557</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.003045130055397749</v>
+        <v>0.001314855762757361</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.003187934635207057</v>
+        <v>0.0007360256859101355</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.001851439592428505</v>
+        <v>0.0008244400378316641</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.00214533181861043</v>
+        <v>0.0001045597164193168</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.001717709004878998</v>
+        <v>0.0004105849657207727</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.001362167415209115</v>
+        <v>0.0003909315855707973</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.002448620973154902</v>
+        <v>0.002047659363597631</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.001738619990646839</v>
+        <v>0.000420689582824707</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.003169865813106298</v>
+        <v>0.0001637405075598508</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.006189662963151932</v>
+        <v>0.0007444879156537354</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.005749598145484924</v>
+        <v>0.0004262942529749125</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.001614815439097583</v>
+        <v>0.0008300890913233161</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.001380962086841464</v>
+        <v>0.0006091040559113026</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0002559255226515234</v>
+        <v>0.0004194851208012551</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0002249436220154166</v>
+        <v>0.0001258822157979012</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.003206057008355856</v>
+        <v>0.000861865992192179</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.0005188368959352374</v>
+        <v>0.0004921042709611356</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.00188197405077517</v>
+        <v>0.0006003221496939659</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.003587810089811683</v>
+        <v>0.0002359891950618476</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.002943838015198708</v>
+        <v>0.0004921956569887698</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.0008307810057885945</v>
+        <v>0.0001720316940918565</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.0003671001177281141</v>
+        <v>0.0002466454752720892</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.0003377612738404423</v>
+        <v>0.0002924026339314878</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.00148072256706655</v>
+        <v>0.001199610065668821</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.004352374002337456</v>
+        <v>0.001203192048706114</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0005434669437818229</v>
+        <v>0.000372684997273609</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.0009366967133246362</v>
+        <v>0.0001978397340280935</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0004191929474473</v>
+        <v>0.0007584429695270956</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.00396264111623168</v>
+        <v>0.0002714649890549481</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.001015546382404864</v>
+        <v>0.0001778715522959828</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.003201658371835947</v>
+        <v>0.0005754953599534929</v>
       </c>
       <c r="CU18" t="n">
-        <v>7.708740304224193e-05</v>
+        <v>0.0001647676981519908</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.000374356925021857</v>
+        <v>0.000166877347510308</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.00358401145786047</v>
+        <v>0.000608077913057059</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.000728534534573555</v>
+        <v>0.0006012868834659457</v>
       </c>
       <c r="CY18" t="n">
-        <v>0.001694966340437531</v>
+        <v>0.0009131251135841012</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.004541612695902586</v>
+        <v>0.0001713368110358715</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.003046112833544612</v>
+        <v>0.000436058733612299</v>
       </c>
       <c r="DB18" t="n">
-        <v>0.000753020984120667</v>
+        <v>0.0003046410565730184</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.0007335160626098514</v>
+        <v>0.0006227525882422924</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.0007552770548500121</v>
+        <v>0.000173482607351616</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.004273205529898405</v>
+        <v>0.0001643362629693002</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.008269283920526505</v>
+        <v>0.001643707510083914</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.00434297788888216</v>
+        <v>9.084413613891229e-05</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.000832929858006537</v>
+        <v>0.002350336639210582</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.002651942893862724</v>
+        <v>0.0006111909169703722</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.003149217227473855</v>
+        <v>0.0001774223928805441</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.0001212505740113556</v>
+        <v>0.001291879219934344</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.002225922420620918</v>
+        <v>0.0006485126214101911</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.00098217255435884</v>
+        <v>0.0005110410274937749</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.002390788868069649</v>
+        <v>4.570510645862669e-05</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.001708762021735311</v>
+        <v>9.126379154622555e-05</v>
       </c>
       <c r="DP18" t="n">
-        <v>0.0008410593145526946</v>
+        <v>0.0006268812576308846</v>
       </c>
       <c r="DQ18" t="n">
-        <v>0.001132987905293703</v>
+        <v>0.0002732457069214433</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.0003575338050723076</v>
+        <v>5.354480163077824e-05</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.003634945256635547</v>
+        <v>0.0001912467705551535</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.0004485427052713931</v>
+        <v>2.035677789535839e-05</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.00173211470246315</v>
+        <v>4.877860919805244e-05</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.0006491944659501314</v>
+        <v>0.0003123153001070023</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.001687825191766024</v>
+        <v>1.706914918031543e-05</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.0004956917255185544</v>
+        <v>0.0005122345755808055</v>
       </c>
       <c r="DY18" t="n">
-        <v>6.694477633573115e-05</v>
+        <v>0.0009370297193527222</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.00127439119387418</v>
+        <v>0.0004053717420902103</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.002624354092404246</v>
+        <v>0.0002430884924251586</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.0006360837141983211</v>
+        <v>4.602273111231625e-05</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.001390752266161144</v>
+        <v>0.0002368242130614817</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.004186619073152542</v>
+        <v>0.000202837327378802</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.0004601793189067394</v>
+        <v>0.0003776458033826202</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0004145689599681646</v>
+        <v>0.0005998764536343515</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.001636793371289968</v>
+        <v>0.0001081514419638552</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0003635261091403663</v>
+        <v>5.342745498637669e-05</v>
       </c>
       <c r="EI18" t="n">
-        <v>0.001965537201613188</v>
+        <v>0.0003663243260234594</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.004269228782504797</v>
+        <v>0.0001398636377416551</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.006534864194691181</v>
+        <v>0.0004278275300748646</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.0002446100115776062</v>
+        <v>0.000365124229574576</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.0003468249924480915</v>
+        <v>2.306023452547379e-05</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.0005001681856811047</v>
+        <v>8.923303539631888e-05</v>
       </c>
       <c r="EO18" t="n">
-        <v>0.001147739123553038</v>
+        <v>0.0002580625005066395</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.003217010293155909</v>
+        <v>8.665469795232639e-05</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.002551797777414322</v>
+        <v>0.001034362008795142</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.0009193973965011537</v>
+        <v>0.0007003085920587182</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.004271572921425104</v>
+        <v>0.0004042347718495876</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.0009638792835175991</v>
+        <v>0.0005423358525149524</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.0008138598641380668</v>
+        <v>0.0004559912777040154</v>
       </c>
       <c r="EV18" t="n">
-        <v>0.002069406909868121</v>
+        <v>0.0007431359263136983</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.0004836519656237215</v>
+        <v>8.521630661562085e-06</v>
       </c>
       <c r="EX18" t="n">
-        <v>9.423682058695704e-06</v>
+        <v>3.051701787626371e-05</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.002984636463224888</v>
+        <v>0.0006031816592440009</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.0007380268652923405</v>
+        <v>0.0004503144591581076</v>
       </c>
       <c r="FA18" t="n">
-        <v>0.001868446124717593</v>
+        <v>0.0005004575359635055</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.003961751703172922</v>
+        <v>0.0002642146137077361</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.002832068828865886</v>
+        <v>0.000505151110701263</v>
       </c>
       <c r="FD18" t="n">
-        <v>0.0007903040386736393</v>
+        <v>0.0003984836221206933</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.0003667549462988973</v>
+        <v>0.0002910465118475258</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.001089385244995356</v>
+        <v>0.0003572538553271443</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.002710917731747031</v>
+        <v>0.0002799121721182019</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.002255689352750778</v>
+        <v>0.000464446929981932</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.0009247802081517875</v>
+        <v>0.00104751274921</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.002135241869837046</v>
+        <v>7.353673572652042e-05</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.0006053298129700124</v>
+        <v>0.0001547051360830665</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.00201681419275701</v>
+        <v>0.0002502446877770126</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.001400996348820627</v>
+        <v>0.0002105574239976704</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.002721872180700302</v>
+        <v>5.286092709866352e-05</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.0005870689055882394</v>
+        <v>6.254469190025702e-05</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.0002525480231270194</v>
+        <v>0.0003543436178006232</v>
       </c>
       <c r="FQ18" t="n">
-        <v>7.826217915862799e-05</v>
+        <v>0.0005213869153521955</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.001152894459664822</v>
+        <v>0.0005253022536635399</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.0004881230415776372</v>
+        <v>0.0005888078012503684</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.001765823690220714</v>
+        <v>0.001145383343100548</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.003118677996098995</v>
+        <v>0.0005565499886870384</v>
       </c>
       <c r="FV18" t="n">
-        <v>0.002676405478268862</v>
+        <v>0.0003435852704569697</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.0006329362513497472</v>
+        <v>0.0008933815988712013</v>
       </c>
       <c r="FX18" t="n">
-        <v>0.0004895878373645246</v>
+        <v>0.0001714074605843052</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.002998231211677194</v>
+        <v>0.0009069023653864861</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0.003589476924389601</v>
+        <v>0.0003093210107181221</v>
       </c>
       <c r="GA18" t="n">
-        <v>0.0002498450339771807</v>
+        <v>0.0002650387468747795</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.0002695379953365773</v>
+        <v>0.0008763511432334781</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.002517892513424158</v>
+        <v>0.0001361609611194581</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.0003319334064144641</v>
+        <v>0.0006230741273611784</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.004407114814966917</v>
+        <v>0.001849808846600354</v>
       </c>
       <c r="GF18" t="n">
-        <v>0.0009486358612775803</v>
+        <v>0.0007150316378101707</v>
       </c>
       <c r="GG18" t="n">
-        <v>0.0004716523981187493</v>
+        <v>0.0006383691215887666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.918963168165646e-05</v>
+        <v>0.00136775232385844</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003870983608067036</v>
+        <v>0.01777190715074539</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001696069084573537</v>
+        <v>0.002357289893552661</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001079916255548596</v>
+        <v>0.009700960479676723</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002608065260574222</v>
+        <v>0.008108950220048428</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00503375381231308</v>
+        <v>0.002982598496600986</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000132271641632542</v>
+        <v>0.003247051732614636</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001058829249814153</v>
+        <v>0.0017775195883587</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0007599975215271115</v>
+        <v>1.322163734585047e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0007452357676811516</v>
+        <v>0.0009823737200349569</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003912189975380898</v>
+        <v>0.01322329510003328</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005809127469547093</v>
+        <v>0.0003793397627305239</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0007850257097743452</v>
+        <v>0.006902514491230249</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00226812157779932</v>
+        <v>0.007116853259503841</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004831219092011452</v>
+        <v>0.003595395712181926</v>
       </c>
       <c r="P19" t="n">
-        <v>2.66223942162469e-05</v>
+        <v>0.003359574824571609</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0009425636380910873</v>
+        <v>0.002236114116385579</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0005753420409746468</v>
+        <v>0.00012859285925515</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0003155031299684197</v>
+        <v>0.001072641462087631</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0003141271008644253</v>
+        <v>0.003200014121830463</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0001759780279826373</v>
+        <v>0.0003980658075306565</v>
       </c>
       <c r="V19" t="n">
-        <v>0.000386460218578577</v>
+        <v>0.002550587989389896</v>
       </c>
       <c r="W19" t="n">
-        <v>8.662996697239578e-05</v>
+        <v>0.001835920731537044</v>
       </c>
       <c r="X19" t="n">
-        <v>0.00133786560036242</v>
+        <v>0.001870412495918572</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0005674966960214078</v>
+        <v>0.002126203384250402</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.001096046413294971</v>
+        <v>0.002673365641385317</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0002888528106268495</v>
+        <v>0.001968443859368563</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0008967866306193173</v>
+        <v>0.0002452111802995205</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0004235246451571584</v>
+        <v>0.0004791761748492718</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0002250243269372731</v>
+        <v>0.001120044849812984</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.57362553384155e-05</v>
+        <v>0.0007499490166082978</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.00194544717669487</v>
+        <v>0.0009987115627154708</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0001693419617367908</v>
+        <v>0.0003356474335305393</v>
       </c>
       <c r="AH19" t="n">
-        <v>4.146204446442425e-06</v>
+        <v>0.00125286728143692</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.0008041703840717673</v>
+        <v>0.0006956075085327029</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.0002890545292757452</v>
+        <v>0.0007868845132179558</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.0002849863958545029</v>
+        <v>0.002167683094739914</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.00092790846247226</v>
+        <v>0.002121163299307227</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.0002322750224266201</v>
+        <v>4.10760949307587e-05</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.574605115223676e-05</v>
+        <v>0.001026191515848041</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.0002565435424912721</v>
+        <v>0.001764925778843462</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.0006760897231288254</v>
+        <v>0.001770356437191367</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0001740397710818797</v>
+        <v>0.001000186312012374</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.0002359204518143088</v>
+        <v>0.001409822842106223</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0004937517223879695</v>
+        <v>0.001187680754810572</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.0003125978691969067</v>
+        <v>0.000535548897460103</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.001952807419002056</v>
+        <v>0.01188142318278551</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.000613886455539614</v>
+        <v>0.001197524485178292</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.001018164679408073</v>
+        <v>0.001216910197399557</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.0004209592007100582</v>
+        <v>0.002513062208890915</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.002791065257042646</v>
+        <v>0.0009548445814289153</v>
       </c>
       <c r="AZ19" t="n">
-        <v>7.34477216610685e-05</v>
+        <v>0.0007778474246151745</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.86555553227663e-08</v>
+        <v>0.002199169248342514</v>
       </c>
       <c r="BB19" t="n">
-        <v>9.998380846809596e-06</v>
+        <v>0.0007777392165735364</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.0008424730040132999</v>
+        <v>0.0009856964461505413</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.0003740668762475252</v>
+        <v>0.002563689835369587</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.0003187617694493383</v>
+        <v>0.002864818787202239</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.001239116187207401</v>
+        <v>0.002754692686721683</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.0004320067528169602</v>
+        <v>0.006338208448141813</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.0005178403225727379</v>
+        <v>0.0001609226310392842</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.0001333902328042313</v>
+        <v>0.00161375047173351</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.001153902849182487</v>
+        <v>0.00237348536029458</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.0005495335208252072</v>
+        <v>0.0003180751227773726</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.0004036187601741403</v>
+        <v>0.002496751956641674</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.000512373517267406</v>
+        <v>0.004093441180884838</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.0004515933978836983</v>
+        <v>0.001337342080660164</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.0004313753743190318</v>
+        <v>4.836390144191682e-05</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.001001002383418381</v>
+        <v>0.001361729926429689</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.000596465019043535</v>
+        <v>0.001703858375549316</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.0001470787101425231</v>
+        <v>2.707170642679557e-05</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.0009278165525756776</v>
+        <v>0.0005469163879752159</v>
       </c>
       <c r="BT19" t="n">
-        <v>0.0006931719835847616</v>
+        <v>0.0003070961101911962</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.0002177820133510977</v>
+        <v>0.0008713091956451535</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.001208309782668948</v>
+        <v>0.007075796835124493</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.0002044262364506721</v>
+        <v>0.002957594813778996</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.0003631621948443353</v>
+        <v>0.001005062833428383</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.001020969590172172</v>
+        <v>0.001216050004586577</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.001766877248883247</v>
+        <v>0.002059848979115486</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.000291823991574347</v>
+        <v>0.001927556586451828</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.0003565304214134812</v>
+        <v>0.0005267897504381835</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.0008911574841476977</v>
+        <v>0.00113053503446281</v>
       </c>
       <c r="CD19" t="n">
-        <v>0.0001253954251296818</v>
+        <v>7.345130870817229e-05</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.0007421417976729572</v>
+        <v>0.002665649401023984</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.0001444654335500672</v>
+        <v>0.0009438988636247814</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.0001190783805213869</v>
+        <v>0.001276385621167719</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.0006081521860323846</v>
+        <v>6.750244938302785e-05</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.0008388964924961329</v>
+        <v>0.001096649444662035</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.0002422622492304072</v>
+        <v>0.0005941637791693211</v>
       </c>
       <c r="CK19" t="n">
-        <v>9.944099292624742e-05</v>
+        <v>0.0005284324870444834</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.0001715910766506568</v>
+        <v>0.001241236343048513</v>
       </c>
       <c r="CM19" t="n">
-        <v>5.78537437831983e-05</v>
+        <v>0.00288426736369729</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.0007393485284410417</v>
+        <v>0.0006529551465064287</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.0005665680509991944</v>
+        <v>0.0009001946309581399</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.0005136107793077826</v>
+        <v>0.00216955877840519</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.000656635093037039</v>
+        <v>0.00199503474868834</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.001019336516037583</v>
+        <v>0.00239738798700273</v>
       </c>
       <c r="CS19" t="n">
-        <v>0.0007169783348217607</v>
+        <v>0.002868916373699903</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.0005154978134669363</v>
+        <v>0.002187606645748019</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.0004555970954243094</v>
+        <v>0.0009011310758069158</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.0002780807844828814</v>
+        <v>0.0002106387109961361</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.0007592721376568079</v>
+        <v>0.002188036683946848</v>
       </c>
       <c r="CX19" t="n">
-        <v>0.0001756050041876733</v>
+        <v>0.001112921978347003</v>
       </c>
       <c r="CY19" t="n">
-        <v>8.010314923012629e-05</v>
+        <v>0.001978571526706219</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.0006450451910495758</v>
+        <v>0.0001876348833320662</v>
       </c>
       <c r="DA19" t="n">
-        <v>0.0007568733999505639</v>
+        <v>0.001353237661533058</v>
       </c>
       <c r="DB19" t="n">
-        <v>0.0003970242978539318</v>
+        <v>0.0006693846080452204</v>
       </c>
       <c r="DC19" t="n">
-        <v>9.640005009714514e-05</v>
+        <v>0.0007690769270993769</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.0002147509367205203</v>
+        <v>0.0006947804940864444</v>
       </c>
       <c r="DE19" t="n">
-        <v>0.0006905003101564944</v>
+        <v>0.0008304748916998506</v>
       </c>
       <c r="DF19" t="n">
-        <v>0.000909818394575268</v>
+        <v>0.003176242578774691</v>
       </c>
       <c r="DG19" t="n">
-        <v>0.001030493061989546</v>
+        <v>0.00270383502356708</v>
       </c>
       <c r="DH19" t="n">
-        <v>0.0001281050499528646</v>
+        <v>0.007103096693754196</v>
       </c>
       <c r="DI19" t="n">
-        <v>0.001312987296842039</v>
+        <v>6.781530100852251e-05</v>
       </c>
       <c r="DJ19" t="n">
-        <v>0.0001370304962620139</v>
+        <v>0.0004888697294518352</v>
       </c>
       <c r="DK19" t="n">
-        <v>0.001345434808172286</v>
+        <v>0.001874363166280091</v>
       </c>
       <c r="DL19" t="n">
-        <v>0.000483270559925586</v>
+        <v>0.0007140344241634011</v>
       </c>
       <c r="DM19" t="n">
-        <v>0.0008645187481306493</v>
+        <v>0.001279447227716446</v>
       </c>
       <c r="DN19" t="n">
-        <v>0.0003387181786820292</v>
+        <v>0.001665602903813124</v>
       </c>
       <c r="DO19" t="n">
-        <v>7.732810627203435e-05</v>
+        <v>0.001213541487231851</v>
       </c>
       <c r="DP19" t="n">
-        <v>0.0003762712585739791</v>
+        <v>0.0001067010161932558</v>
       </c>
       <c r="DQ19" t="n">
-        <v>0.000310479081235826</v>
+        <v>0.0002091791975544766</v>
       </c>
       <c r="DR19" t="n">
-        <v>0.0001178958045784384</v>
+        <v>0.0007703256560489535</v>
       </c>
       <c r="DS19" t="n">
-        <v>0.000608737173024565</v>
+        <v>1.898322807392105e-05</v>
       </c>
       <c r="DT19" t="n">
-        <v>0.0002963310107588768</v>
+        <v>0.001296766102313995</v>
       </c>
       <c r="DU19" t="n">
-        <v>0.0002005181449931115</v>
+        <v>9.33269620873034e-06</v>
       </c>
       <c r="DV19" t="n">
-        <v>0.0001907266705529764</v>
+        <v>0.001518283970654011</v>
       </c>
       <c r="DW19" t="n">
-        <v>0.000283400557236746</v>
+        <v>0.0005912948399782181</v>
       </c>
       <c r="DX19" t="n">
-        <v>0.0001597547670826316</v>
+        <v>0.0004297179402783513</v>
       </c>
       <c r="DY19" t="n">
-        <v>0.0002134387759724632</v>
+        <v>0.002236123662441969</v>
       </c>
       <c r="DZ19" t="n">
-        <v>0.0002517070097383112</v>
+        <v>0.0005070996121503413</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.0001543690450489521</v>
+        <v>0.002050388837233186</v>
       </c>
       <c r="EB19" t="n">
-        <v>0.0004927956033498049</v>
+        <v>0.0004942453233525157</v>
       </c>
       <c r="EC19" t="n">
-        <v>0.0002080796548398212</v>
+        <v>0.0006324068526737392</v>
       </c>
       <c r="ED19" t="n">
-        <v>0.0001854149159044027</v>
+        <v>0.0008857071516104043</v>
       </c>
       <c r="EE19" t="n">
-        <v>0.000335883058141917</v>
+        <v>0.001065764809027314</v>
       </c>
       <c r="EF19" t="n">
-        <v>0.0003771820338442922</v>
+        <v>0.001674744416959584</v>
       </c>
       <c r="EG19" t="n">
-        <v>0.001123826019465923</v>
+        <v>0.002607255009934306</v>
       </c>
       <c r="EH19" t="n">
-        <v>0.0006856419495306909</v>
+        <v>0.001159347128123045</v>
       </c>
       <c r="EI19" t="n">
-        <v>2.596092963358387e-05</v>
+        <v>0.0009288644650951028</v>
       </c>
       <c r="EJ19" t="n">
-        <v>0.001628071535378695</v>
+        <v>0.001523568760603666</v>
       </c>
       <c r="EK19" t="n">
-        <v>0.001000914489850402</v>
+        <v>0.0008907742449082434</v>
       </c>
       <c r="EL19" t="n">
-        <v>1.045083081407938e-05</v>
+        <v>0.0009459270513616502</v>
       </c>
       <c r="EM19" t="n">
-        <v>0.0004385419888421893</v>
+        <v>0.0001743385219015181</v>
       </c>
       <c r="EN19" t="n">
-        <v>0.0004568032745737582</v>
+        <v>0.0005103080184198916</v>
       </c>
       <c r="EO19" t="n">
-        <v>6.550187208631542e-06</v>
+        <v>0.0003792230854742229</v>
       </c>
       <c r="EP19" t="n">
-        <v>0.000152117179823108</v>
+        <v>0.0002890544128604233</v>
       </c>
       <c r="EQ19" t="n">
-        <v>0.0001545574050396681</v>
+        <v>0.00188372889533639</v>
       </c>
       <c r="ER19" t="n">
-        <v>7.562979590147734e-05</v>
+        <v>0.001323445001617074</v>
       </c>
       <c r="ES19" t="n">
-        <v>0.0005599081632681191</v>
+        <v>0.0005076116067357361</v>
       </c>
       <c r="ET19" t="n">
-        <v>0.0006828680634498596</v>
+        <v>0.001788757042959332</v>
       </c>
       <c r="EU19" t="n">
-        <v>0.0005591430235654116</v>
+        <v>0.001409453107044101</v>
       </c>
       <c r="EV19" t="n">
-        <v>1.554287337057758e-05</v>
+        <v>0.00164878205396235</v>
       </c>
       <c r="EW19" t="n">
-        <v>0.0005077692912891507</v>
+        <v>0.0005503970314748585</v>
       </c>
       <c r="EX19" t="n">
-        <v>0.0003062526229768991</v>
+        <v>0.000167787482496351</v>
       </c>
       <c r="EY19" t="n">
-        <v>0.0008308555698022246</v>
+        <v>0.00215203664265573</v>
       </c>
       <c r="EZ19" t="n">
-        <v>2.542092988733202e-05</v>
+        <v>0.0009300001547671854</v>
       </c>
       <c r="FA19" t="n">
-        <v>6.472466338891536e-05</v>
+        <v>0.001789344125427306</v>
       </c>
       <c r="FB19" t="n">
-        <v>0.000588293420150876</v>
+        <v>0.0001891844149213284</v>
       </c>
       <c r="FC19" t="n">
-        <v>0.0007962285308167338</v>
+        <v>0.001204645377583802</v>
       </c>
       <c r="FD19" t="n">
-        <v>0.0002458533854223788</v>
+        <v>0.0009726661373861134</v>
       </c>
       <c r="FE19" t="n">
-        <v>6.092338298913091e-05</v>
+        <v>0.0005218154983595014</v>
       </c>
       <c r="FF19" t="n">
-        <v>0.0001860911143012345</v>
+        <v>0.001359303132630885</v>
       </c>
       <c r="FG19" t="n">
-        <v>0.000622199266217649</v>
+        <v>0.001257472205907106</v>
       </c>
       <c r="FH19" t="n">
-        <v>0.0008920649415813386</v>
+        <v>0.001371519407257438</v>
       </c>
       <c r="FI19" t="n">
-        <v>0.0008338277693837881</v>
+        <v>0.001646693795919418</v>
       </c>
       <c r="FJ19" t="n">
-        <v>0.000364778854418546</v>
+        <v>0.002464494202286005</v>
       </c>
       <c r="FK19" t="n">
-        <v>0.0007259018020704389</v>
+        <v>0.001379867666400969</v>
       </c>
       <c r="FL19" t="n">
-        <v>0.001013653352856636</v>
+        <v>0.0010444464860484</v>
       </c>
       <c r="FM19" t="n">
-        <v>0.0004649089823942631</v>
+        <v>0.001011709100566804</v>
       </c>
       <c r="FN19" t="n">
-        <v>0.0001017359827528708</v>
+        <v>0.001399857457727194</v>
       </c>
       <c r="FO19" t="n">
-        <v>0.0004837073502130806</v>
+        <v>0.0006227546255104244</v>
       </c>
       <c r="FP19" t="n">
-        <v>0.000152044216520153</v>
+        <v>0.0005103930598124862</v>
       </c>
       <c r="FQ19" t="n">
-        <v>0.0007421672344207764</v>
+        <v>0.0004815826541744173</v>
       </c>
       <c r="FR19" t="n">
-        <v>0.0003537337761372328</v>
+        <v>0.002450904808938503</v>
       </c>
       <c r="FS19" t="n">
-        <v>0.001323499018326402</v>
+        <v>0.001238880679011345</v>
       </c>
       <c r="FT19" t="n">
-        <v>0.0004245234886184335</v>
+        <v>0.001404097303748131</v>
       </c>
       <c r="FU19" t="n">
-        <v>0.001457727747038007</v>
+        <v>0.0004738121933769435</v>
       </c>
       <c r="FV19" t="n">
-        <v>0.0001603133714525029</v>
+        <v>0.0001711318036541343</v>
       </c>
       <c r="FW19" t="n">
-        <v>5.984783638268709e-05</v>
+        <v>0.0002879203238990158</v>
       </c>
       <c r="FX19" t="n">
-        <v>0.0001941159134730697</v>
+        <v>0.001469075796194375</v>
       </c>
       <c r="FY19" t="n">
-        <v>0.0002679266617633402</v>
+        <v>0.002766100456938148</v>
       </c>
       <c r="FZ19" t="n">
-        <v>0.0004735520924441516</v>
+        <v>0.001078879460692406</v>
       </c>
       <c r="GA19" t="n">
-        <v>7.629308674950153e-05</v>
+        <v>0.0003876433183904737</v>
       </c>
       <c r="GB19" t="n">
-        <v>0.0002455681096762419</v>
+        <v>0.0009868942433968186</v>
       </c>
       <c r="GC19" t="n">
-        <v>0.0002777283661998808</v>
+        <v>0.001808327622711658</v>
       </c>
       <c r="GD19" t="n">
-        <v>8.224876364693046e-05</v>
+        <v>0.002170912222936749</v>
       </c>
       <c r="GE19" t="n">
-        <v>0.0003133474965579808</v>
+        <v>0.004825872834771872</v>
       </c>
       <c r="GF19" t="n">
-        <v>0.001196042983792722</v>
+        <v>0.001619925256818533</v>
       </c>
       <c r="GG19" t="n">
-        <v>0.0004368615918792784</v>
+        <v>0.001328175771050155</v>
       </c>
     </row>
   </sheetData>
